--- a/src/app/data/example.xlsx
+++ b/src/app/data/example.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.1.152\userfolderredirect$\A-MANU-003\Desktop\工作中\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexwang\Desktop\alexwang_work\angular-csv\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E982BA88-2EC7-4C60-B65C-B9586D83AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{756E92C1-A97C-4F56-B7A9-B962B225FF4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED5FD8-0074-4593-AEAB-8CDC06F79DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="12930" windowHeight="12465" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108.06" sheetId="213" state="hidden" r:id="rId1"/>
-    <sheet name="成型條件10%" sheetId="203" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="203" r:id="rId2"/>
     <sheet name="原料標示" sheetId="214" state="hidden" r:id="rId3"/>
     <sheet name="試模區原料" sheetId="217" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'成型條件10%'!$A$1:$AB$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sheet1!$A$1:$AB$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">試模區原料!$A$1:$E$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'成型條件10%'!$A$1:$AB$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">sheet1!$A$1:$AB$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">原料標示!$A$1:$B$17</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="173">
   <si>
     <t>宗瑋工業股份有限公司Grand Dynasty Industrial Co., Ltd.</t>
   </si>
@@ -438,9 +438,6 @@
     <t>噴嘴℃ Nozzle</t>
   </si>
   <si>
-    <t>{A01.0.1}</t>
-  </si>
-  <si>
     <t>頂針壓力
 Ejector Pin pressure</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -455,9 +452,6 @@
   <si>
     <t>一段℃ Section#1</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{A01.0.2}</t>
   </si>
   <si>
     <r>
@@ -1087,14 +1081,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;T&quot;General"/>
-    <numFmt numFmtId="167" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="169" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
-    <numFmt numFmtId="171" formatCode="General\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;T&quot;General"/>
+    <numFmt numFmtId="178" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="182" formatCode="General\ &quot;kgs&quot;"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1595,13 +1589,13 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1657,7 +1651,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1666,16 +1660,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1702,25 +1696,562 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,9 +2275,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1756,9 +2284,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1780,24 +2305,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1813,10 +2326,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1825,13 +2338,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1843,13 +2356,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,525 +2382,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2690,7 +2684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3017,7 +3011,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3033,10 +3027,10 @@
   <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M13"/>
+      <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="8" customWidth="1"/>
     <col min="2" max="2" width="1.75" style="8" customWidth="1"/>
@@ -3073,36 +3067,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.25" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
       <c r="AC1" s="24"/>
       <c r="AD1" s="24"/>
       <c r="AE1" s="24"/>
@@ -3110,36 +3104,36 @@
       <c r="AG1" s="24"/>
     </row>
     <row r="2" spans="1:33" ht="14.25" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="24"/>
@@ -3147,54 +3141,54 @@
       <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="1:33" ht="10.5" customHeight="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="205" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="206"/>
-      <c r="J3" s="209" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="210"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="215" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="195" t="s">
+      <c r="N3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="195" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="196"/>
-      <c r="T3" s="237" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="188"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="237" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="237" t="s">
+      <c r="X3" s="75"/>
+      <c r="Y3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="237" t="s">
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="189"/>
+      <c r="AB3" s="75"/>
       <c r="AC3" s="24"/>
       <c r="AD3" s="24"/>
       <c r="AE3" s="24"/>
@@ -3202,34 +3196,34 @@
       <c r="AG3" s="24"/>
     </row>
     <row r="4" spans="1:33" ht="10.5" customHeight="1">
-      <c r="A4" s="197"/>
-      <c r="B4" s="198"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="218"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="238"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="238"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="238"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="238"/>
-      <c r="AB4" s="157"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="78"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="24"/>
       <c r="AE4" s="24"/>
@@ -3237,48 +3231,48 @@
       <c r="AG4" s="24"/>
     </row>
     <row r="5" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A5" s="197"/>
-      <c r="B5" s="198"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="221" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="222"/>
-      <c r="J5" s="239" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="241"/>
-      <c r="M5" s="245">
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="85">
         <v>1</v>
       </c>
-      <c r="N5" s="247" t="s">
+      <c r="N5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="248"/>
-      <c r="P5" s="248"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="55" t="s">
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="57"/>
-      <c r="T5" s="187" t="s">
+      <c r="S5" s="94"/>
+      <c r="T5" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="188"/>
-      <c r="V5" s="189"/>
-      <c r="W5" s="182" t="s">
+      <c r="U5" s="74"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="183" t="s">
+      <c r="X5" s="111"/>
+      <c r="Y5" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="184"/>
+      <c r="Z5" s="113"/>
       <c r="AA5" s="25" t="s">
         <v>13</v>
       </c>
@@ -3292,34 +3286,34 @@
       <c r="AG5" s="24"/>
     </row>
     <row r="6" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A6" s="197"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="244"/>
-      <c r="M6" s="246"/>
-      <c r="N6" s="250"/>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="190"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="192"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="185" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="186"/>
+      <c r="Z6" s="115"/>
       <c r="AA6" s="25" t="s">
         <v>13</v>
       </c>
@@ -3341,42 +3335,42 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="221" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="222"/>
-      <c r="J7" s="225" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="226"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="245">
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="85">
         <v>2</v>
       </c>
-      <c r="N7" s="253"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="178"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="183" t="s">
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="184"/>
+      <c r="Z7" s="113"/>
       <c r="AA7" s="25"/>
       <c r="AB7" s="26" t="s">
         <v>15</v>
@@ -3396,34 +3390,34 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A8" s="197"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="255"/>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="179"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="181"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="185" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="186"/>
+      <c r="Z8" s="115"/>
       <c r="AA8" s="25"/>
       <c r="AB8" s="26" t="s">
         <v>17</v>
@@ -3443,51 +3437,51 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="18" customHeight="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="170" t="s">
+      <c r="B9" s="144"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="171"/>
+      <c r="F9" s="146"/>
       <c r="G9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="159" t="s">
+      <c r="H9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160" t="e">
+      <c r="I9" s="131"/>
+      <c r="J9" s="132" t="e">
         <f>VLOOKUP($Z$52,#REF!,7,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="118" t="s">
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="110" t="s">
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110" t="s">
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="120"/>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24">
         <v>65</v>
@@ -3503,41 +3497,41 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="22.5" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="89" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
       <c r="Y10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z10" s="154" t="s">
+      <c r="Z10" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AA10" s="154"/>
+      <c r="AA10" s="122"/>
       <c r="AB10" s="12" t="s">
         <v>36</v>
       </c>
@@ -3556,52 +3550,52 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="21.75" customHeight="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="166" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="167" t="s">
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="132" t="s">
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="133" t="s">
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="153"/>
-      <c r="T11" s="158" t="s">
+      <c r="S11" s="127"/>
+      <c r="T11" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="153"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="127" t="s">
+      <c r="U11" s="127"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
       <c r="Z11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="127" t="s">
+      <c r="AA11" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="127"/>
+      <c r="AB11" s="130"/>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24">
         <v>80</v>
@@ -3617,48 +3611,48 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="127">
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="130">
         <v>1</v>
       </c>
-      <c r="G12" s="153"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="28">
         <v>2</v>
       </c>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="135" t="s">
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="135" t="s">
+      <c r="O12" s="151"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="137"/>
-      <c r="V12" s="142" t="s">
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="142"/>
-      <c r="X12" s="142"/>
-      <c r="Y12" s="142"/>
-      <c r="Z12" s="142" t="s">
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="142"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24">
         <v>85</v>
@@ -3672,38 +3666,38 @@
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:33" ht="35.25" customHeight="1">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="28"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="150" t="s">
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
       <c r="AC13" s="24"/>
       <c r="AD13" s="24">
         <v>90</v>
@@ -3717,42 +3711,42 @@
       <c r="AG13" s="24"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="144" t="s">
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="128" t="s">
+      <c r="O14" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="97" t="s">
+      <c r="P14" s="160"/>
+      <c r="Q14" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="97"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24">
         <v>95</v>
@@ -3765,43 +3759,41 @@
       </c>
       <c r="AG14" s="24"/>
     </row>
-    <row r="15" spans="1:33" ht="16.5">
-      <c r="A15" s="132" t="s">
+    <row r="15" spans="1:33">
+      <c r="A15" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="139" t="s">
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="140" t="s">
+      <c r="P15" s="155"/>
+      <c r="Q15" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="148" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="149"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
       <c r="AC15" s="24"/>
       <c r="AD15" s="24">
         <v>100</v>
@@ -3810,47 +3802,45 @@
         <v>6.5</v>
       </c>
       <c r="AF15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="24"/>
+    </row>
+    <row r="16" spans="1:33" ht="16.149999999999999" customHeight="1">
+      <c r="A16" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="AG15" s="24"/>
-    </row>
-    <row r="16" spans="1:33" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="132" t="s">
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="139" t="s">
+      <c r="P16" s="171"/>
+      <c r="Q16" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="131"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
       <c r="AC16" s="24"/>
       <c r="AD16" s="24">
         <v>105</v>
@@ -3859,43 +3849,43 @@
         <v>7</v>
       </c>
       <c r="AF16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG16" s="24"/>
+    </row>
+    <row r="17" spans="1:32" ht="16.899999999999999" customHeight="1">
+      <c r="A17" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="AG16" s="24"/>
-    </row>
-    <row r="17" spans="1:32" ht="16.899999999999999" customHeight="1">
-      <c r="A17" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="135" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="138"/>
-      <c r="T17" s="138"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24">
         <v>110</v>
@@ -3904,48 +3894,48 @@
         <v>7.5</v>
       </c>
       <c r="AF17" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A18" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="174" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A18" s="97" t="s">
+      <c r="O18" s="164" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="115" t="s">
-        <v>73</v>
       </c>
       <c r="P18" s="6">
         <v>1</v>
       </c>
-      <c r="Q18" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="118"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
+      <c r="Q18" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="138"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24">
         <v>115</v>
@@ -3954,44 +3944,44 @@
         <v>8</v>
       </c>
       <c r="AF18" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A19" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
+      <c r="A19" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="170"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="116"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="177"/>
       <c r="P19" s="6">
         <v>2</v>
       </c>
-      <c r="Q19" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="118"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
+      <c r="Q19" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="138"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
       <c r="AC19" s="24"/>
       <c r="AD19" s="24">
         <v>120</v>
@@ -4000,44 +3990,44 @@
         <v>8.5</v>
       </c>
       <c r="AF19" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A20" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="A20" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="170"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="116"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="177"/>
       <c r="P20" s="6">
         <v>3</v>
       </c>
-      <c r="Q20" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="118"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
+      <c r="Q20" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="138"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
       <c r="AC20" s="24"/>
       <c r="AD20" s="24">
         <v>125</v>
@@ -4046,86 +4036,86 @@
         <v>9</v>
       </c>
       <c r="AF20" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A21" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="A21" s="152" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="170"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="116"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="177"/>
       <c r="P21" s="6">
         <v>4</v>
       </c>
-      <c r="Q21" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21" s="118"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
+      <c r="Q21" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="138"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A22" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="A22" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="116"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="177"/>
       <c r="P22" s="6">
         <v>5</v>
       </c>
-      <c r="Q22" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" s="118"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
+      <c r="Q22" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="138"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24">
         <v>130</v>
@@ -4134,88 +4124,88 @@
         <v>9.5</v>
       </c>
       <c r="AF22" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="116"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="177"/>
       <c r="P23" s="6">
         <v>6</v>
       </c>
-      <c r="Q23" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="118"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="109"/>
+      <c r="Q23" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" s="138"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="169"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="170"/>
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="24"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A24" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99"/>
+      <c r="A24" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="115" t="s">
-        <v>85</v>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="164" t="s">
+        <v>83</v>
       </c>
       <c r="P24" s="6">
         <v>1</v>
       </c>
-      <c r="Q24" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="R24" s="124"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
+      <c r="Q24" s="181" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="182"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
       <c r="AC24" s="24"/>
       <c r="AD24" s="24">
         <v>135</v>
@@ -4228,40 +4218,40 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="99"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="116"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="177"/>
       <c r="P25" s="6">
         <v>2</v>
       </c>
-      <c r="Q25" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R25" s="118"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
+      <c r="Q25" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="138"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
       <c r="AC25" s="24"/>
       <c r="AD25" s="24">
         <v>140</v>
@@ -4270,44 +4260,44 @@
       <c r="AF25" s="24"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A26" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="97">
+      <c r="A26" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="152">
         <v>1</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97" t="s">
+      <c r="C26" s="152"/>
+      <c r="D26" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="99"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="117"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="165"/>
       <c r="P26" s="6">
         <v>3</v>
       </c>
-      <c r="Q26" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="R26" s="118"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
+      <c r="Q26" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="138"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24">
         <v>145</v>
@@ -4316,42 +4306,42 @@
       <c r="AF26" s="24"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A27" s="110"/>
-      <c r="B27" s="97">
+      <c r="A27" s="120"/>
+      <c r="B27" s="152">
         <v>2</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97" t="s">
+      <c r="C27" s="152"/>
+      <c r="D27" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="99"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="P27" s="257"/>
-      <c r="Q27" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="118"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R27" s="138"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
       <c r="AC27" s="24"/>
       <c r="AD27" s="24">
         <v>150</v>
@@ -4360,1005 +4350,1414 @@
       <c r="AF27" s="24"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A28" s="110"/>
-      <c r="B28" s="97">
+      <c r="A28" s="120"/>
+      <c r="B28" s="152">
         <v>3</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97" t="s">
+      <c r="C28" s="152"/>
+      <c r="D28" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="110" t="s">
-        <v>89</v>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="120" t="s">
+        <v>87</v>
       </c>
       <c r="P28" s="6">
         <v>1</v>
       </c>
-      <c r="Q28" s="97" t="s">
+      <c r="Q28" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="R28" s="97"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="24"/>
       <c r="AF28" s="24"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A29" s="110"/>
-      <c r="B29" s="97">
+      <c r="A29" s="120"/>
+      <c r="B29" s="152">
         <v>4</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97" t="s">
+      <c r="C29" s="152"/>
+      <c r="D29" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="110"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="120"/>
       <c r="P29" s="6">
         <v>2</v>
       </c>
-      <c r="Q29" s="97" t="s">
+      <c r="Q29" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="97"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
       <c r="AC29" s="24"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
     </row>
     <row r="30" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A30" s="110"/>
-      <c r="B30" s="97">
+      <c r="A30" s="120"/>
+      <c r="B30" s="152">
         <v>5</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97" t="s">
+      <c r="C30" s="152"/>
+      <c r="D30" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="170"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="110" t="s">
-        <v>90</v>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="120" t="s">
+        <v>88</v>
       </c>
       <c r="P30" s="6">
         <v>1</v>
       </c>
-      <c r="Q30" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R30" s="118"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
+      <c r="Q30" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="138"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="24"/>
     </row>
     <row r="31" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A31" s="110"/>
-      <c r="B31" s="97">
+      <c r="A31" s="120"/>
+      <c r="B31" s="152">
         <v>6</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97" t="s">
+      <c r="C31" s="152"/>
+      <c r="D31" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="109"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="110"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="120"/>
       <c r="P31" s="6">
         <v>2</v>
       </c>
-      <c r="Q31" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R31" s="118"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
+      <c r="Q31" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R31" s="138"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="24"/>
       <c r="AE31" s="24"/>
       <c r="AF31" s="24"/>
     </row>
     <row r="32" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="120"/>
+      <c r="D32" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="152"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="97" t="s">
+      <c r="P32" s="187"/>
+      <c r="Q32" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="97"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A33" s="110"/>
-      <c r="B33" s="110" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="120"/>
+      <c r="D33" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="152"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R33" s="138"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A34" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="97" t="s">
+      <c r="B34" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="120"/>
+      <c r="D34" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="96" t="s">
+      <c r="E34" s="152"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="R33" s="118"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A34" s="112" t="s">
+      <c r="O34" s="164" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="O34" s="115" t="s">
-        <v>98</v>
       </c>
       <c r="P34" s="6">
         <v>1</v>
       </c>
-      <c r="Q34" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R34" s="47"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
+      <c r="Q34" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" s="189"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A35" s="112"/>
-      <c r="B35" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="97" t="s">
+      <c r="A35" s="188"/>
+      <c r="B35" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="120"/>
+      <c r="D35" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="109"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="116"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="177"/>
       <c r="P35" s="6">
         <v>2</v>
       </c>
-      <c r="Q35" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R35" s="47"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="89"/>
+      <c r="Q35" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R35" s="189"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
+      <c r="Y35" s="121"/>
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="121"/>
+      <c r="AB35" s="121"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="97">
+      <c r="A36" s="164" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="152">
         <v>1</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="109"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="190"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="116"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="177"/>
       <c r="P36" s="6">
         <v>3</v>
       </c>
-      <c r="Q36" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R36" s="47"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89"/>
+      <c r="Q36" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R36" s="189"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="121"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="97">
+      <c r="A37" s="177"/>
+      <c r="B37" s="152">
         <v>2</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="109"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="190"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="116"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="175"/>
+      <c r="O37" s="177"/>
       <c r="P37" s="6">
         <v>4</v>
       </c>
-      <c r="Q37" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R37" s="47"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
+      <c r="Q37" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R37" s="189"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="121"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="97">
+      <c r="A38" s="177"/>
+      <c r="B38" s="152">
         <v>3</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="109"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="190"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="116"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="177"/>
       <c r="P38" s="6">
         <v>5</v>
       </c>
-      <c r="Q38" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R38" s="47"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="89"/>
+      <c r="Q38" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R38" s="189"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="121"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="121"/>
+      <c r="W38" s="121"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="Z38" s="121"/>
+      <c r="AA38" s="121"/>
+      <c r="AB38" s="121"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="97">
+      <c r="A39" s="177"/>
+      <c r="B39" s="152">
         <v>4</v>
       </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="109"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="190"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="117"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="165"/>
       <c r="P39" s="6">
         <v>6</v>
       </c>
-      <c r="Q39" s="47" t="s">
+      <c r="Q39" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R39" s="189"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="121"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="121"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
+      <c r="Y39" s="121"/>
+      <c r="Z39" s="121"/>
+      <c r="AA39" s="121"/>
+      <c r="AB39" s="121"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A40" s="177"/>
+      <c r="B40" s="152">
+        <v>5</v>
+      </c>
+      <c r="C40" s="152"/>
+      <c r="D40" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="190"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="175"/>
+      <c r="O40" s="120" t="s">
         <v>99</v>
-      </c>
-      <c r="R39" s="47"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="89"/>
-      <c r="AA39" s="89"/>
-      <c r="AB39" s="89"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="97">
-        <v>5</v>
-      </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="110" t="s">
-        <v>101</v>
       </c>
       <c r="P40" s="6">
         <v>1</v>
       </c>
-      <c r="Q40" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R40" s="47"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89"/>
+      <c r="Q40" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R40" s="189"/>
+      <c r="S40" s="121"/>
+      <c r="T40" s="121"/>
+      <c r="U40" s="121"/>
+      <c r="V40" s="121"/>
+      <c r="W40" s="121"/>
+      <c r="X40" s="121"/>
+      <c r="Y40" s="121"/>
+      <c r="Z40" s="121"/>
+      <c r="AA40" s="121"/>
+      <c r="AB40" s="121"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="97">
+      <c r="A41" s="177"/>
+      <c r="B41" s="152">
         <v>6</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="109"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="190"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="170"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="110"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="175"/>
+      <c r="O41" s="120"/>
       <c r="P41" s="6">
         <v>2</v>
       </c>
-      <c r="Q41" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R41" s="47"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
+      <c r="Q41" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R41" s="189"/>
+      <c r="S41" s="121"/>
+      <c r="T41" s="121"/>
+      <c r="U41" s="121"/>
+      <c r="V41" s="121"/>
+      <c r="W41" s="121"/>
+      <c r="X41" s="121"/>
+      <c r="Y41" s="121"/>
+      <c r="Z41" s="121"/>
+      <c r="AA41" s="121"/>
+      <c r="AB41" s="121"/>
     </row>
     <row r="42" spans="1:28" ht="18" customHeight="1">
-      <c r="A42" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="106"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
+      <c r="A42" s="186" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="190"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="110"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="175"/>
+      <c r="O42" s="120"/>
       <c r="P42" s="6">
         <v>3</v>
       </c>
-      <c r="Q42" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R42" s="47"/>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
-      <c r="V42" s="89"/>
-      <c r="W42" s="89"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="89"/>
-      <c r="AA42" s="89"/>
-      <c r="AB42" s="89"/>
+      <c r="Q42" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R42" s="189"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="121"/>
+      <c r="AB42" s="121"/>
     </row>
     <row r="43" spans="1:28" ht="20.25" customHeight="1">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="186" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="192"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="175"/>
+      <c r="O43" s="195" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" s="196"/>
+      <c r="Q43" s="197" t="s">
+        <v>97</v>
+      </c>
+      <c r="R43" s="198"/>
+      <c r="S43" s="199"/>
+      <c r="T43" s="200"/>
+      <c r="U43" s="199"/>
+      <c r="V43" s="201"/>
+      <c r="W43" s="200"/>
+      <c r="X43" s="199"/>
+      <c r="Y43" s="201"/>
+      <c r="Z43" s="200"/>
+      <c r="AA43" s="199"/>
+      <c r="AB43" s="200"/>
+    </row>
+    <row r="44" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A44" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="100" t="s">
+      <c r="B44" s="186"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="103" t="s">
+      <c r="E44" s="192"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="175"/>
+      <c r="O44" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="R43" s="92"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="35"/>
-    </row>
-    <row r="44" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A44" s="96" t="s">
+      <c r="P44" s="194"/>
+      <c r="Q44" s="197" t="s">
+        <v>97</v>
+      </c>
+      <c r="R44" s="198"/>
+      <c r="S44" s="199"/>
+      <c r="T44" s="200"/>
+      <c r="U44" s="203"/>
+      <c r="V44" s="204"/>
+      <c r="W44" s="205"/>
+      <c r="X44" s="199"/>
+      <c r="Y44" s="201"/>
+      <c r="Z44" s="200"/>
+      <c r="AA44" s="199"/>
+      <c r="AB44" s="200"/>
+    </row>
+    <row r="45" spans="1:28" ht="19.5" customHeight="1">
+      <c r="A45" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="101" t="s">
+      <c r="B45" s="186"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="152" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="152"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="175"/>
+      <c r="O45" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="R44" s="92"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="35"/>
-    </row>
-    <row r="45" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A45" s="96" t="s">
+      <c r="P45" s="224"/>
+      <c r="Q45" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R45" s="189"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="202"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202"/>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="121"/>
+      <c r="Z45" s="121"/>
+      <c r="AA45" s="121"/>
+      <c r="AB45" s="121"/>
+    </row>
+    <row r="46" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A46" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="45" t="s">
+      <c r="B46" s="232"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R45" s="47"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="89"/>
-    </row>
-    <row r="46" spans="1:28" ht="21.75" customHeight="1">
-      <c r="A46" s="55" t="s">
+      <c r="E46" s="212"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="218"/>
+      <c r="J46" s="219"/>
+      <c r="K46" s="209"/>
+      <c r="L46" s="199"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="175"/>
+      <c r="O46" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="29" t="s">
+      <c r="P46" s="224"/>
+      <c r="Q46" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="R46" s="189"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="202"/>
+      <c r="V46" s="202"/>
+      <c r="W46" s="202"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="121"/>
+      <c r="AA46" s="121"/>
+      <c r="AB46" s="121"/>
+    </row>
+    <row r="47" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A47" s="95"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="214"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="217"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="221"/>
+      <c r="K47" s="222"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="217"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="45" t="s">
+      <c r="P47" s="207"/>
+      <c r="Q47" s="208" t="s">
+        <v>97</v>
+      </c>
+      <c r="R47" s="208"/>
+      <c r="S47" s="209"/>
+      <c r="T47" s="209"/>
+      <c r="U47" s="210"/>
+      <c r="V47" s="210"/>
+      <c r="W47" s="210"/>
+      <c r="X47" s="209"/>
+      <c r="Y47" s="209"/>
+      <c r="Z47" s="209"/>
+      <c r="AA47" s="209"/>
+      <c r="AB47" s="209"/>
+    </row>
+    <row r="48" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A48" s="243">
+        <v>10</v>
+      </c>
+      <c r="B48" s="244"/>
+      <c r="C48" s="244"/>
+      <c r="D48" s="244"/>
+      <c r="E48" s="244"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="244"/>
+      <c r="H48" s="244"/>
+      <c r="I48" s="244"/>
+      <c r="J48" s="244"/>
+      <c r="K48" s="244"/>
+      <c r="L48" s="244"/>
+      <c r="M48" s="245"/>
+      <c r="N48" s="246" t="s">
         <v>111</v>
       </c>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="R46" s="47"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
-    </row>
-    <row r="47" spans="1:28" ht="21.75" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="85" t="s">
+      <c r="O48" s="247"/>
+      <c r="P48" s="247"/>
+      <c r="Q48" s="247"/>
+      <c r="R48" s="247"/>
+      <c r="S48" s="247"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="247"/>
+      <c r="W48" s="247"/>
+      <c r="X48" s="247"/>
+      <c r="Y48" s="247"/>
+      <c r="Z48" s="247"/>
+      <c r="AA48" s="247"/>
+      <c r="AB48" s="248"/>
+    </row>
+    <row r="49" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="249">
+        <v>10</v>
+      </c>
+      <c r="B49" s="250"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="250"/>
+      <c r="E49" s="250"/>
+      <c r="F49" s="250"/>
+      <c r="G49" s="250"/>
+      <c r="H49" s="250"/>
+      <c r="I49" s="250"/>
+      <c r="J49" s="250"/>
+      <c r="K49" s="250"/>
+      <c r="L49" s="250"/>
+      <c r="M49" s="251"/>
+      <c r="N49" s="252" t="s">
         <v>112</v>
       </c>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-    </row>
-    <row r="48" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="70">
-        <v>10</v>
-      </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="73" t="s">
+      <c r="O49" s="253"/>
+      <c r="P49" s="253"/>
+      <c r="Q49" s="253"/>
+      <c r="R49" s="253"/>
+      <c r="S49" s="253"/>
+      <c r="T49" s="253"/>
+      <c r="U49" s="253"/>
+      <c r="V49" s="253"/>
+      <c r="W49" s="253"/>
+      <c r="X49" s="253"/>
+      <c r="Y49" s="253"/>
+      <c r="Z49" s="253"/>
+      <c r="AA49" s="253"/>
+      <c r="AB49" s="254"/>
+    </row>
+    <row r="50" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A50" s="255" t="s">
         <v>113</v>
       </c>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="74"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="74"/>
-      <c r="AA48" s="74"/>
-      <c r="AB48" s="75"/>
-    </row>
-    <row r="49" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="76">
-        <v>10</v>
-      </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="79" t="s">
+      <c r="B50" s="256"/>
+      <c r="C50" s="256"/>
+      <c r="D50" s="256"/>
+      <c r="E50" s="256"/>
+      <c r="F50" s="256"/>
+      <c r="G50" s="256"/>
+      <c r="H50" s="256"/>
+      <c r="I50" s="256"/>
+      <c r="J50" s="256"/>
+      <c r="K50" s="256"/>
+      <c r="L50" s="256"/>
+      <c r="M50" s="257"/>
+      <c r="N50" s="234" t="s">
         <v>114</v>
       </c>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-      <c r="AA49" s="80"/>
-      <c r="AB49" s="81"/>
-    </row>
-    <row r="50" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="82" t="s">
+      <c r="O50" s="235"/>
+      <c r="P50" s="235"/>
+      <c r="Q50" s="235"/>
+      <c r="R50" s="235"/>
+      <c r="S50" s="235"/>
+      <c r="T50" s="235"/>
+      <c r="U50" s="235"/>
+      <c r="V50" s="235"/>
+      <c r="W50" s="235"/>
+      <c r="X50" s="235"/>
+      <c r="Y50" s="235"/>
+      <c r="Z50" s="235"/>
+      <c r="AA50" s="235"/>
+      <c r="AB50" s="236"/>
+    </row>
+    <row r="51" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A51" s="229" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="61" t="s">
+      <c r="B51" s="230"/>
+      <c r="C51" s="230"/>
+      <c r="D51" s="230"/>
+      <c r="E51" s="230"/>
+      <c r="F51" s="230"/>
+      <c r="G51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="230"/>
+      <c r="K51" s="230"/>
+      <c r="L51" s="230"/>
+      <c r="M51" s="231"/>
+      <c r="N51" s="234"/>
+      <c r="O51" s="235"/>
+      <c r="P51" s="235"/>
+      <c r="Q51" s="235"/>
+      <c r="R51" s="235"/>
+      <c r="S51" s="235"/>
+      <c r="T51" s="235"/>
+      <c r="U51" s="235"/>
+      <c r="V51" s="235"/>
+      <c r="W51" s="235"/>
+      <c r="X51" s="235"/>
+      <c r="Y51" s="235"/>
+      <c r="Z51" s="235"/>
+      <c r="AA51" s="235"/>
+      <c r="AB51" s="236"/>
+    </row>
+    <row r="52" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="A52" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="63"/>
-    </row>
-    <row r="51" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="52" t="s">
+      <c r="B52" s="227"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="227"/>
+      <c r="E52" s="227"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="227"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="227"/>
+      <c r="J52" s="227"/>
+      <c r="K52" s="227"/>
+      <c r="L52" s="227"/>
+      <c r="M52" s="228"/>
+      <c r="N52" s="237" t="s">
+        <v>13</v>
+      </c>
+      <c r="O52" s="238"/>
+      <c r="P52" s="238"/>
+      <c r="Q52" s="238"/>
+      <c r="R52" s="238"/>
+      <c r="S52" s="238"/>
+      <c r="T52" s="238"/>
+      <c r="U52" s="238"/>
+      <c r="V52" s="238"/>
+      <c r="W52" s="238"/>
+      <c r="X52" s="238"/>
+      <c r="Y52" s="238"/>
+      <c r="Z52" s="239" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA52" s="239"/>
+      <c r="AB52" s="240"/>
+    </row>
+    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A53" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="63"/>
-    </row>
-    <row r="52" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="49" t="s">
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="225"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="225" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA52" s="66"/>
-      <c r="AB52" s="67"/>
-    </row>
-    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A53" s="48" t="s">
+      <c r="H53" s="225"/>
+      <c r="I53" s="225"/>
+      <c r="J53" s="225"/>
+      <c r="K53" s="225"/>
+      <c r="L53" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
+      <c r="M53" s="241"/>
+      <c r="N53" s="241"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
-      <c r="Z53" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
+      <c r="Z53" s="242" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA53" s="242"/>
+      <c r="AB53" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="433">
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:M47"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="A52:M52"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A46:C47"/>
+    <mergeCell ref="N50:AB51"/>
+    <mergeCell ref="N52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="N48:AB48"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="N49:AB49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:N47"/>
+    <mergeCell ref="O34:O39"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:N33"/>
+    <mergeCell ref="O18:O23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:N10"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A2:AB2"/>
     <mergeCell ref="A3:B6"/>
@@ -5383,415 +5782,6 @@
     <mergeCell ref="R5:S6"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:Q8"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:N10"/>
-    <mergeCell ref="O9:S10"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:N33"/>
-    <mergeCell ref="O18:O23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:N47"/>
-    <mergeCell ref="O34:O39"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:M47"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A46:C47"/>
-    <mergeCell ref="N50:AB51"/>
-    <mergeCell ref="N52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="N48:AB48"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="N49:AB49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="AA47:AB47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5817,60 +5807,60 @@
     <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.149999999999999">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="258" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="258"/>
     </row>
     <row r="2" spans="1:2" ht="50.1" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50.1" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" ht="50.1" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="50.1" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="7" spans="1:2" ht="16.149999999999999">
+    <row r="7" spans="1:2" ht="16.5">
       <c r="A7" s="258" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="258"/>
     </row>
     <row r="8" spans="1:2" ht="50.1" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="50.1" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="14">
         <v>5</v>
@@ -5878,48 +5868,48 @@
     </row>
     <row r="10" spans="1:2" ht="50.1" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="50.1" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="13" spans="1:2" ht="16.149999999999999">
+    <row r="13" spans="1:2" ht="16.5">
       <c r="A13" s="258" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="258"/>
     </row>
     <row r="14" spans="1:2" ht="50.1" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="13"/>
     </row>
     <row r="15" spans="1:2" ht="50.1" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" ht="50.1" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2" ht="50.1" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" s="15"/>
     </row>
@@ -5961,1035 +5951,1035 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="258" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" s="258"/>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="19">
         <v>10</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="19">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="19">
         <v>16</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="19">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="19">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="19">
         <v>15</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="19">
         <v>9</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="19">
         <v>5</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="19">
         <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="19">
         <v>2</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" s="19">
         <v>10</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="19">
         <v>10</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="19">
         <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" s="19">
         <v>5</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="19">
         <v>5</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B18" s="19">
         <v>5</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="19">
         <v>5</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" s="19">
         <v>10</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" s="19">
         <v>15</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="19">
         <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" s="19">
         <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" s="19">
         <v>5</v>
       </c>
       <c r="C24" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B25" s="19">
         <v>5</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" s="19">
         <v>5</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.25" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="19">
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="19">
         <v>5</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="19">
         <v>25</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="19">
         <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="258" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D30" s="258" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B31" s="19">
         <v>20</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" s="258"/>
       <c r="E31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.25" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="19">
         <v>10</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="258"/>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B33" s="19">
         <v>25</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="258" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D33" s="258" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25.15" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" s="19">
         <v>10</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="258"/>
       <c r="E34" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.15" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B35" s="19">
         <v>4</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="258" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D35" s="258" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B36" s="19">
         <v>15</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D36" s="258"/>
       <c r="E36" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.15" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B37" s="19">
         <v>10</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" s="258"/>
       <c r="E37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="25.15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.15" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.15" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.15" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.15" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.15" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.15" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.15" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.15" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="25.15" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="25.15" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="25.15" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="25.15" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="25.15" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="25.15" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="25.15" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="25.15" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.15" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.15" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.15" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="25.15" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="25.15" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="25.15" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/app/data/example.xlsx
+++ b/src/app/data/example.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexwang\Desktop\alexwang_work\angular-csv\src\app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_future\front-end\angular-csv\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED5FD8-0074-4593-AEAB-8CDC06F79DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F2AED-B4FB-4D38-91BB-B293E9E20503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="12930" windowHeight="12465" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108.06" sheetId="213" state="hidden" r:id="rId1"/>
-    <sheet name="sheet1" sheetId="203" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="203" r:id="rId2"/>
     <sheet name="原料標示" sheetId="214" state="hidden" r:id="rId3"/>
     <sheet name="試模區原料" sheetId="217" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sheet1!$A$1:$AB$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$AB$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">試模區原料!$A$1:$E$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">sheet1!$A$1:$AB$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$AB$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">原料標示!$A$1:$B$17</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -1081,14 +1081,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="&quot;T&quot;General"/>
-    <numFmt numFmtId="178" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
-    <numFmt numFmtId="182" formatCode="General\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;T&quot;General"/>
+    <numFmt numFmtId="167" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="171" formatCode="General\ &quot;kgs&quot;"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1329,7 +1329,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1589,13 +1589,13 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,7 +1651,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1660,16 +1660,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1696,6 +1696,501 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,21 +2326,9 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1888,27 +2371,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1918,477 +2383,12 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="一般 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 11" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般 12" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2684,7 +2684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3011,7 +3011,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3026,77 +3026,77 @@
   </sheetPr>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="1.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="1.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="2" style="8" customWidth="1"/>
     <col min="5" max="5" width="3" style="8" customWidth="1"/>
-    <col min="6" max="6" width="0.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="4.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="0.77734375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="8" customWidth="1"/>
     <col min="12" max="12" width="4" style="8" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="6.625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="4.125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="2.375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="3.5" style="8" customWidth="1"/>
-    <col min="19" max="19" width="5.125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="3.44140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="8" customWidth="1"/>
     <col min="20" max="20" width="2" style="8" customWidth="1"/>
-    <col min="21" max="21" width="2.125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="1.75" style="8" customWidth="1"/>
-    <col min="23" max="23" width="3.625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="1.875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="4.25" style="8" customWidth="1"/>
-    <col min="26" max="26" width="4.375" style="8" customWidth="1"/>
-    <col min="27" max="27" width="4.25" style="8" customWidth="1"/>
-    <col min="28" max="28" width="3.5" style="8" customWidth="1"/>
-    <col min="29" max="31" width="5.125" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.25" style="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="7.125" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.125" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="16384" width="5.125" style="8"/>
+    <col min="21" max="21" width="2.109375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="1.77734375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.6640625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="1.88671875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="4.21875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="8" customWidth="1"/>
+    <col min="27" max="27" width="4.21875" style="8" customWidth="1"/>
+    <col min="28" max="28" width="3.44140625" style="8" customWidth="1"/>
+    <col min="29" max="31" width="5.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" style="8" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="7.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="35" max="16384" width="5.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.25" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
       <c r="AC1" s="24"/>
       <c r="AD1" s="24"/>
       <c r="AE1" s="24"/>
@@ -3104,36 +3104,36 @@
       <c r="AG1" s="24"/>
     </row>
     <row r="2" spans="1:33" ht="14.25" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="24"/>
@@ -3141,54 +3141,54 @@
       <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="1:33" ht="10.5" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="41" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="45" t="s">
+      <c r="I3" s="207"/>
+      <c r="J3" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="211"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31" t="s">
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="73" t="s">
+      <c r="S3" s="197"/>
+      <c r="T3" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="73" t="s">
+      <c r="U3" s="189"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="73" t="s">
+      <c r="X3" s="190"/>
+      <c r="Y3" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="73" t="s">
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="75"/>
+      <c r="AB3" s="190"/>
       <c r="AC3" s="24"/>
       <c r="AD3" s="24"/>
       <c r="AE3" s="24"/>
@@ -3196,34 +3196,34 @@
       <c r="AG3" s="24"/>
     </row>
     <row r="4" spans="1:33" ht="10.5" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="78"/>
+      <c r="A4" s="198"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="239"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="239"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="239"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="24"/>
       <c r="AE4" s="24"/>
@@ -3231,48 +3231,48 @@
       <c r="AG4" s="24"/>
     </row>
     <row r="5" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="57" t="s">
+      <c r="A5" s="198"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="79" t="s">
+      <c r="I5" s="223"/>
+      <c r="J5" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="85">
+      <c r="K5" s="241"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="246">
         <v>1</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="93" t="s">
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="94"/>
-      <c r="T5" s="116" t="s">
+      <c r="S5" s="57"/>
+      <c r="T5" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="111" t="s">
+      <c r="U5" s="189"/>
+      <c r="V5" s="190"/>
+      <c r="W5" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="112" t="s">
+      <c r="X5" s="183"/>
+      <c r="Y5" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="113"/>
+      <c r="Z5" s="185"/>
       <c r="AA5" s="25" t="s">
         <v>13</v>
       </c>
@@ -3286,34 +3286,34 @@
       <c r="AG5" s="24"/>
     </row>
     <row r="6" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="114" t="s">
+      <c r="A6" s="198"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="247"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="253"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="115"/>
+      <c r="Z6" s="187"/>
       <c r="AA6" s="25" t="s">
         <v>13</v>
       </c>
@@ -3335,42 +3335,42 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="57" t="s">
+      <c r="B7" s="197"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="61" t="s">
+      <c r="I7" s="223"/>
+      <c r="J7" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="85">
+      <c r="K7" s="227"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="246">
         <v>2</v>
       </c>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="112" t="s">
+      <c r="N7" s="254"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
+      <c r="Y7" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="113"/>
+      <c r="Z7" s="185"/>
       <c r="AA7" s="25"/>
       <c r="AB7" s="26" t="s">
         <v>15</v>
@@ -3390,34 +3390,34 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="114" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="247"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="256"/>
+      <c r="P8" s="256"/>
+      <c r="Q8" s="257"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="183"/>
+      <c r="Y8" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="115"/>
+      <c r="Z8" s="187"/>
       <c r="AA8" s="25"/>
       <c r="AB8" s="26" t="s">
         <v>17</v>
@@ -3437,51 +3437,51 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="18" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="145" t="s">
+      <c r="B9" s="138"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="146"/>
+      <c r="F9" s="172"/>
       <c r="G9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="131" t="s">
+      <c r="H9" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132" t="e">
+      <c r="I9" s="160"/>
+      <c r="J9" s="161" t="e">
         <f>VLOOKUP($Z$52,#REF!,7,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="138" t="s">
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="120" t="s">
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="120"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120" t="s">
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="120"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24">
         <v>65</v>
@@ -3497,41 +3497,41 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="22.5" customHeight="1">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="121" t="s">
+      <c r="B10" s="138"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
       <c r="Y10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z10" s="122" t="s">
+      <c r="Z10" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AA10" s="122"/>
+      <c r="AA10" s="155"/>
       <c r="AB10" s="12" t="s">
         <v>36</v>
       </c>
@@ -3550,52 +3550,52 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="21.75" customHeight="1">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="139" t="s">
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="140" t="s">
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="125" t="s">
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="126" t="s">
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="127"/>
-      <c r="T11" s="128" t="s">
+      <c r="S11" s="154"/>
+      <c r="T11" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="127"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="130" t="s">
+      <c r="U11" s="154"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
       <c r="Z11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="130" t="s">
+      <c r="AA11" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="130"/>
+      <c r="AB11" s="128"/>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24">
         <v>80</v>
@@ -3611,48 +3611,48 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="130">
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="128">
         <v>1</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="129"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
       <c r="K12" s="28">
         <v>2</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="143" t="s">
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="151"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="143" t="s">
+      <c r="O12" s="137"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="147" t="s">
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147" t="s">
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
+      <c r="AA12" s="143"/>
+      <c r="AB12" s="143"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24">
         <v>85</v>
@@ -3666,38 +3666,38 @@
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:33" ht="35.25" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="129"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="28"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="148" t="s">
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
       <c r="AC13" s="24"/>
       <c r="AD13" s="24">
         <v>90</v>
@@ -3711,42 +3711,42 @@
       <c r="AG13" s="24"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="129"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="157" t="s">
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="123" t="s">
+      <c r="O14" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="152" t="s">
+      <c r="P14" s="148"/>
+      <c r="Q14" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="152"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24">
         <v>95</v>
@@ -3760,40 +3760,40 @@
       <c r="AG14" s="24"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="129"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="154" t="s">
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="161" t="s">
+      <c r="P15" s="142"/>
+      <c r="Q15" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="162"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
-      <c r="Z15" s="130"/>
-      <c r="AA15" s="130"/>
-      <c r="AB15" s="130"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
       <c r="AC15" s="24"/>
       <c r="AD15" s="24">
         <v>100</v>
@@ -3806,41 +3806,41 @@
       </c>
       <c r="AG15" s="24"/>
     </row>
-    <row r="16" spans="1:33" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="125" t="s">
+    <row r="16" spans="1:33" ht="16.2" customHeight="1">
+      <c r="A16" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="129"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="123" t="s">
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="172" t="s">
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="173"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="130"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
       <c r="AC16" s="24"/>
       <c r="AD16" s="24">
         <v>105</v>
@@ -3853,39 +3853,39 @@
       </c>
       <c r="AG16" s="24"/>
     </row>
-    <row r="17" spans="1:32" ht="16.899999999999999" customHeight="1">
-      <c r="A17" s="125" t="s">
+    <row r="17" spans="1:32" ht="16.95" customHeight="1">
+      <c r="A17" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="129"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="143" t="s">
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24">
         <v>110</v>
@@ -3898,44 +3898,44 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="170"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="109"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="174" t="s">
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="164" t="s">
+      <c r="O18" s="115" t="s">
         <v>71</v>
       </c>
       <c r="P18" s="6">
         <v>1</v>
       </c>
-      <c r="Q18" s="138" t="s">
+      <c r="Q18" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="138"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24">
         <v>115</v>
@@ -3948,40 +3948,40 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="170"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="109"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="177"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="116"/>
       <c r="P19" s="6">
         <v>2</v>
       </c>
-      <c r="Q19" s="138" t="s">
+      <c r="Q19" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R19" s="138"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
       <c r="AC19" s="24"/>
       <c r="AD19" s="24">
         <v>120</v>
@@ -3994,40 +3994,40 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="170"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="177"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="116"/>
       <c r="P20" s="6">
         <v>3</v>
       </c>
-      <c r="Q20" s="138" t="s">
+      <c r="Q20" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R20" s="138"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
       <c r="AC20" s="24"/>
       <c r="AD20" s="24">
         <v>125</v>
@@ -4040,82 +4040,82 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A21" s="152" t="s">
+      <c r="A21" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="170"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="109"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="177"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="116"/>
       <c r="P21" s="6">
         <v>4</v>
       </c>
-      <c r="Q21" s="138" t="s">
+      <c r="Q21" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R21" s="138"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="170"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="177"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="116"/>
       <c r="P22" s="6">
         <v>5</v>
       </c>
-      <c r="Q22" s="138" t="s">
+      <c r="Q22" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R22" s="138"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24">
         <v>130</v>
@@ -4128,84 +4128,84 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="120" t="s">
+      <c r="A23" s="117"/>
+      <c r="B23" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="170"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="177"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="116"/>
       <c r="P23" s="6">
         <v>6</v>
       </c>
-      <c r="Q23" s="138" t="s">
+      <c r="Q23" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="138"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="169"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="178"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="169"/>
-      <c r="AB23" s="170"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="109"/>
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="24"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="180"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="164" t="s">
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="115" t="s">
         <v>83</v>
       </c>
       <c r="P24" s="6">
         <v>1</v>
       </c>
-      <c r="Q24" s="181" t="s">
+      <c r="Q24" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="182"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
       <c r="AC24" s="24"/>
       <c r="AD24" s="24">
         <v>135</v>
@@ -4218,40 +4218,40 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="120" t="s">
+      <c r="A25" s="117"/>
+      <c r="B25" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="180"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="177"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="116"/>
       <c r="P25" s="6">
         <v>2</v>
       </c>
-      <c r="Q25" s="138" t="s">
+      <c r="Q25" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="138"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
       <c r="AC25" s="24"/>
       <c r="AD25" s="24">
         <v>140</v>
@@ -4260,44 +4260,44 @@
       <c r="AF25" s="24"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="152">
+      <c r="B26" s="97">
         <v>1</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152" t="s">
+      <c r="C26" s="97"/>
+      <c r="D26" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="152"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="99"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="165"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="117"/>
       <c r="P26" s="6">
         <v>3</v>
       </c>
-      <c r="Q26" s="138" t="s">
+      <c r="Q26" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="R26" s="138"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24">
         <v>145</v>
@@ -4306,42 +4306,42 @@
       <c r="AF26" s="24"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A27" s="120"/>
-      <c r="B27" s="152">
+      <c r="A27" s="110"/>
+      <c r="B27" s="97">
         <v>2</v>
       </c>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152" t="s">
+      <c r="C27" s="97"/>
+      <c r="D27" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="152"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="99"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="184" t="s">
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="P27" s="185"/>
-      <c r="Q27" s="138" t="s">
+      <c r="P27" s="120"/>
+      <c r="Q27" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R27" s="138"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
       <c r="AC27" s="24"/>
       <c r="AD27" s="24">
         <v>150</v>
@@ -4350,988 +4350,988 @@
       <c r="AF27" s="24"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A28" s="120"/>
-      <c r="B28" s="152">
+      <c r="A28" s="110"/>
+      <c r="B28" s="97">
         <v>3</v>
       </c>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152" t="s">
+      <c r="C28" s="97"/>
+      <c r="D28" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="152"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="170"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="109"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="120" t="s">
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="110" t="s">
         <v>87</v>
       </c>
       <c r="P28" s="6">
         <v>1</v>
       </c>
-      <c r="Q28" s="152" t="s">
+      <c r="Q28" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="R28" s="152"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="24"/>
       <c r="AF28" s="24"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A29" s="120"/>
-      <c r="B29" s="152">
+      <c r="A29" s="110"/>
+      <c r="B29" s="97">
         <v>4</v>
       </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152" t="s">
+      <c r="C29" s="97"/>
+      <c r="D29" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="152"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="170"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="109"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="120"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="110"/>
       <c r="P29" s="6">
         <v>2</v>
       </c>
-      <c r="Q29" s="152" t="s">
+      <c r="Q29" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="152"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
       <c r="AC29" s="24"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
     </row>
     <row r="30" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A30" s="120"/>
-      <c r="B30" s="152">
+      <c r="A30" s="110"/>
+      <c r="B30" s="97">
         <v>5</v>
       </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152" t="s">
+      <c r="C30" s="97"/>
+      <c r="D30" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="152"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="170"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="109"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="120" t="s">
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="110" t="s">
         <v>88</v>
       </c>
       <c r="P30" s="6">
         <v>1</v>
       </c>
-      <c r="Q30" s="138" t="s">
+      <c r="Q30" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="138"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="24"/>
     </row>
     <row r="31" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A31" s="120"/>
-      <c r="B31" s="152">
+      <c r="A31" s="110"/>
+      <c r="B31" s="97">
         <v>6</v>
       </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152" t="s">
+      <c r="C31" s="97"/>
+      <c r="D31" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="152"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="170"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="109"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="120"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="110"/>
       <c r="P31" s="6">
         <v>2</v>
       </c>
-      <c r="Q31" s="138" t="s">
+      <c r="Q31" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="138"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="24"/>
       <c r="AE31" s="24"/>
       <c r="AF31" s="24"/>
     </row>
     <row r="32" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="152" t="s">
+      <c r="C32" s="110"/>
+      <c r="D32" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="152"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="170"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="109"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="186" t="s">
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="152" t="s">
+      <c r="P32" s="105"/>
+      <c r="Q32" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="R32" s="152"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A33" s="120"/>
-      <c r="B33" s="120" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="152" t="s">
+      <c r="C33" s="110"/>
+      <c r="D33" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="152"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="170"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="109"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="186" t="s">
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="138" t="s">
+      <c r="P33" s="105"/>
+      <c r="Q33" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="R33" s="138"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A34" s="188" t="s">
+      <c r="A34" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="152" t="s">
+      <c r="C34" s="110"/>
+      <c r="D34" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="152"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="170"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="109"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="174" t="s">
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="O34" s="164" t="s">
+      <c r="O34" s="115" t="s">
         <v>96</v>
       </c>
       <c r="P34" s="6">
         <v>1</v>
       </c>
-      <c r="Q34" s="189" t="s">
+      <c r="Q34" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="189"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="89"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A35" s="188"/>
-      <c r="B35" s="120" t="s">
+      <c r="A35" s="112"/>
+      <c r="B35" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="152" t="s">
+      <c r="C35" s="110"/>
+      <c r="D35" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="152"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="170"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="109"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="177"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="116"/>
       <c r="P35" s="6">
         <v>2</v>
       </c>
-      <c r="Q35" s="189" t="s">
+      <c r="Q35" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R35" s="189"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="89"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="152">
+      <c r="B36" s="97">
         <v>1</v>
       </c>
-      <c r="C36" s="152"/>
-      <c r="D36" s="190" t="s">
+      <c r="C36" s="97"/>
+      <c r="D36" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="190"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="109"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="177"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="116"/>
       <c r="P36" s="6">
         <v>3</v>
       </c>
-      <c r="Q36" s="189" t="s">
+      <c r="Q36" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R36" s="189"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="121"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="89"/>
+      <c r="AB36" s="89"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A37" s="177"/>
-      <c r="B37" s="152">
+      <c r="A37" s="116"/>
+      <c r="B37" s="97">
         <v>2</v>
       </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="190" t="s">
+      <c r="C37" s="97"/>
+      <c r="D37" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="190"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="170"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="109"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="177"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="116"/>
       <c r="P37" s="6">
         <v>4</v>
       </c>
-      <c r="Q37" s="189" t="s">
+      <c r="Q37" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R37" s="189"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="121"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="121"/>
-      <c r="W37" s="121"/>
-      <c r="X37" s="121"/>
-      <c r="Y37" s="121"/>
-      <c r="Z37" s="121"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="121"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="89"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A38" s="177"/>
-      <c r="B38" s="152">
+      <c r="A38" s="116"/>
+      <c r="B38" s="97">
         <v>3</v>
       </c>
-      <c r="C38" s="152"/>
-      <c r="D38" s="190" t="s">
+      <c r="C38" s="97"/>
+      <c r="D38" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="190"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="170"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="109"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="177"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="116"/>
       <c r="P38" s="6">
         <v>5</v>
       </c>
-      <c r="Q38" s="189" t="s">
+      <c r="Q38" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R38" s="189"/>
-      <c r="S38" s="121"/>
-      <c r="T38" s="121"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="121"/>
-      <c r="W38" s="121"/>
-      <c r="X38" s="121"/>
-      <c r="Y38" s="121"/>
-      <c r="Z38" s="121"/>
-      <c r="AA38" s="121"/>
-      <c r="AB38" s="121"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="89"/>
+      <c r="AB38" s="89"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A39" s="177"/>
-      <c r="B39" s="152">
+      <c r="A39" s="116"/>
+      <c r="B39" s="97">
         <v>4</v>
       </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="190" t="s">
+      <c r="C39" s="97"/>
+      <c r="D39" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="190"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="170"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="109"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="165"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="117"/>
       <c r="P39" s="6">
         <v>6</v>
       </c>
-      <c r="Q39" s="189" t="s">
+      <c r="Q39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="189"/>
-      <c r="S39" s="121"/>
-      <c r="T39" s="121"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="121"/>
-      <c r="W39" s="121"/>
-      <c r="X39" s="121"/>
-      <c r="Y39" s="121"/>
-      <c r="Z39" s="121"/>
-      <c r="AA39" s="121"/>
-      <c r="AB39" s="121"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="89"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="89"/>
+      <c r="Z39" s="89"/>
+      <c r="AA39" s="89"/>
+      <c r="AB39" s="89"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" s="177"/>
-      <c r="B40" s="152">
+      <c r="A40" s="116"/>
+      <c r="B40" s="97">
         <v>5</v>
       </c>
-      <c r="C40" s="152"/>
-      <c r="D40" s="190" t="s">
+      <c r="C40" s="97"/>
+      <c r="D40" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="190"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="170"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="175"/>
-      <c r="O40" s="120" t="s">
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="110" t="s">
         <v>99</v>
       </c>
       <c r="P40" s="6">
         <v>1</v>
       </c>
-      <c r="Q40" s="189" t="s">
+      <c r="Q40" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R40" s="189"/>
-      <c r="S40" s="121"/>
-      <c r="T40" s="121"/>
-      <c r="U40" s="121"/>
-      <c r="V40" s="121"/>
-      <c r="W40" s="121"/>
-      <c r="X40" s="121"/>
-      <c r="Y40" s="121"/>
-      <c r="Z40" s="121"/>
-      <c r="AA40" s="121"/>
-      <c r="AB40" s="121"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="89"/>
+      <c r="AB40" s="89"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A41" s="177"/>
-      <c r="B41" s="152">
+      <c r="A41" s="116"/>
+      <c r="B41" s="97">
         <v>6</v>
       </c>
-      <c r="C41" s="152"/>
-      <c r="D41" s="190" t="s">
+      <c r="C41" s="97"/>
+      <c r="D41" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="190"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="183"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="170"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="109"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="175"/>
-      <c r="O41" s="120"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="110"/>
       <c r="P41" s="6">
         <v>2</v>
       </c>
-      <c r="Q41" s="189" t="s">
+      <c r="Q41" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R41" s="189"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="121"/>
-      <c r="U41" s="121"/>
-      <c r="V41" s="121"/>
-      <c r="W41" s="121"/>
-      <c r="X41" s="121"/>
-      <c r="Y41" s="121"/>
-      <c r="Z41" s="121"/>
-      <c r="AA41" s="121"/>
-      <c r="AB41" s="121"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
+      <c r="Z41" s="89"/>
+      <c r="AA41" s="89"/>
+      <c r="AB41" s="89"/>
     </row>
     <row r="42" spans="1:28" ht="18" customHeight="1">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="190" t="s">
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="190"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="99"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="175"/>
-      <c r="O42" s="120"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="110"/>
       <c r="P42" s="6">
         <v>3</v>
       </c>
-      <c r="Q42" s="189" t="s">
+      <c r="Q42" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R42" s="189"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="121"/>
-      <c r="AB42" s="121"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="89"/>
     </row>
     <row r="43" spans="1:28" ht="20.25" customHeight="1">
-      <c r="A43" s="186" t="s">
+      <c r="A43" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="192" t="s">
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="192"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="180"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="195" t="s">
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="P43" s="196"/>
-      <c r="Q43" s="197" t="s">
+      <c r="P43" s="104"/>
+      <c r="Q43" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="R43" s="198"/>
-      <c r="S43" s="199"/>
-      <c r="T43" s="200"/>
-      <c r="U43" s="199"/>
-      <c r="V43" s="201"/>
-      <c r="W43" s="200"/>
-      <c r="X43" s="199"/>
-      <c r="Y43" s="201"/>
-      <c r="Z43" s="200"/>
-      <c r="AA43" s="199"/>
-      <c r="AB43" s="200"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="35"/>
     </row>
     <row r="44" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="192" t="s">
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="192"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="180"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="99"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="175"/>
-      <c r="O44" s="193" t="s">
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="197" t="s">
+      <c r="P44" s="102"/>
+      <c r="Q44" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="198"/>
-      <c r="S44" s="199"/>
-      <c r="T44" s="200"/>
-      <c r="U44" s="203"/>
-      <c r="V44" s="204"/>
-      <c r="W44" s="205"/>
-      <c r="X44" s="199"/>
-      <c r="Y44" s="201"/>
-      <c r="Z44" s="200"/>
-      <c r="AA44" s="199"/>
-      <c r="AB44" s="200"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="35"/>
     </row>
     <row r="45" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="152" t="s">
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="152"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="180"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="99"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="175"/>
-      <c r="O45" s="223" t="s">
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="224"/>
-      <c r="Q45" s="189" t="s">
+      <c r="P45" s="46"/>
+      <c r="Q45" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R45" s="189"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="121"/>
-      <c r="U45" s="202"/>
-      <c r="V45" s="202"/>
-      <c r="W45" s="202"/>
-      <c r="X45" s="121"/>
-      <c r="Y45" s="121"/>
-      <c r="Z45" s="121"/>
-      <c r="AA45" s="121"/>
-      <c r="AB45" s="121"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="89"/>
+      <c r="Y45" s="89"/>
+      <c r="Z45" s="89"/>
+      <c r="AA45" s="89"/>
+      <c r="AB45" s="89"/>
     </row>
     <row r="46" spans="1:28" ht="21.75" customHeight="1">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="232"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="211" t="s">
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="212"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="200"/>
-      <c r="I46" s="218"/>
-      <c r="J46" s="219"/>
-      <c r="K46" s="209"/>
-      <c r="L46" s="199"/>
-      <c r="M46" s="200"/>
-      <c r="N46" s="175"/>
-      <c r="O46" s="223" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P46" s="224"/>
-      <c r="Q46" s="189" t="s">
+      <c r="P46" s="46"/>
+      <c r="Q46" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="R46" s="189"/>
-      <c r="S46" s="121"/>
-      <c r="T46" s="121"/>
-      <c r="U46" s="202"/>
-      <c r="V46" s="202"/>
-      <c r="W46" s="202"/>
-      <c r="X46" s="121"/>
-      <c r="Y46" s="121"/>
-      <c r="Z46" s="121"/>
-      <c r="AA46" s="121"/>
-      <c r="AB46" s="121"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="89"/>
+      <c r="Z46" s="89"/>
+      <c r="AA46" s="89"/>
+      <c r="AB46" s="89"/>
     </row>
     <row r="47" spans="1:28" ht="21.75" customHeight="1">
-      <c r="A47" s="95"/>
-      <c r="B47" s="233"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="214"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="216"/>
-      <c r="H47" s="217"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="221"/>
-      <c r="K47" s="222"/>
-      <c r="L47" s="215"/>
-      <c r="M47" s="217"/>
-      <c r="N47" s="175"/>
-      <c r="O47" s="206" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="P47" s="207"/>
-      <c r="Q47" s="208" t="s">
+      <c r="P47" s="86"/>
+      <c r="Q47" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="208"/>
-      <c r="S47" s="209"/>
-      <c r="T47" s="209"/>
-      <c r="U47" s="210"/>
-      <c r="V47" s="210"/>
-      <c r="W47" s="210"/>
-      <c r="X47" s="209"/>
-      <c r="Y47" s="209"/>
-      <c r="Z47" s="209"/>
-      <c r="AA47" s="209"/>
-      <c r="AB47" s="209"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="43"/>
     </row>
     <row r="48" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="243">
+      <c r="A48" s="70">
         <v>10</v>
       </c>
-      <c r="B48" s="244"/>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="244"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="244"/>
-      <c r="J48" s="244"/>
-      <c r="K48" s="244"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="245"/>
-      <c r="N48" s="246" t="s">
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="O48" s="247"/>
-      <c r="P48" s="247"/>
-      <c r="Q48" s="247"/>
-      <c r="R48" s="247"/>
-      <c r="S48" s="247"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="247"/>
-      <c r="V48" s="247"/>
-      <c r="W48" s="247"/>
-      <c r="X48" s="247"/>
-      <c r="Y48" s="247"/>
-      <c r="Z48" s="247"/>
-      <c r="AA48" s="247"/>
-      <c r="AB48" s="248"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="74"/>
+      <c r="AB48" s="75"/>
     </row>
     <row r="49" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="249">
+      <c r="A49" s="76">
         <v>10</v>
       </c>
-      <c r="B49" s="250"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="250"/>
-      <c r="J49" s="250"/>
-      <c r="K49" s="250"/>
-      <c r="L49" s="250"/>
-      <c r="M49" s="251"/>
-      <c r="N49" s="252" t="s">
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="O49" s="253"/>
-      <c r="P49" s="253"/>
-      <c r="Q49" s="253"/>
-      <c r="R49" s="253"/>
-      <c r="S49" s="253"/>
-      <c r="T49" s="253"/>
-      <c r="U49" s="253"/>
-      <c r="V49" s="253"/>
-      <c r="W49" s="253"/>
-      <c r="X49" s="253"/>
-      <c r="Y49" s="253"/>
-      <c r="Z49" s="253"/>
-      <c r="AA49" s="253"/>
-      <c r="AB49" s="254"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
+      <c r="AA49" s="80"/>
+      <c r="AB49" s="81"/>
     </row>
     <row r="50" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="255" t="s">
+      <c r="A50" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="256"/>
-      <c r="C50" s="256"/>
-      <c r="D50" s="256"/>
-      <c r="E50" s="256"/>
-      <c r="F50" s="256"/>
-      <c r="G50" s="256"/>
-      <c r="H50" s="256"/>
-      <c r="I50" s="256"/>
-      <c r="J50" s="256"/>
-      <c r="K50" s="256"/>
-      <c r="L50" s="256"/>
-      <c r="M50" s="257"/>
-      <c r="N50" s="234" t="s">
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="O50" s="235"/>
-      <c r="P50" s="235"/>
-      <c r="Q50" s="235"/>
-      <c r="R50" s="235"/>
-      <c r="S50" s="235"/>
-      <c r="T50" s="235"/>
-      <c r="U50" s="235"/>
-      <c r="V50" s="235"/>
-      <c r="W50" s="235"/>
-      <c r="X50" s="235"/>
-      <c r="Y50" s="235"/>
-      <c r="Z50" s="235"/>
-      <c r="AA50" s="235"/>
-      <c r="AB50" s="236"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="63"/>
     </row>
     <row r="51" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="229" t="s">
+      <c r="A51" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="230"/>
-      <c r="C51" s="230"/>
-      <c r="D51" s="230"/>
-      <c r="E51" s="230"/>
-      <c r="F51" s="230"/>
-      <c r="G51" s="230"/>
-      <c r="H51" s="230"/>
-      <c r="I51" s="230"/>
-      <c r="J51" s="230"/>
-      <c r="K51" s="230"/>
-      <c r="L51" s="230"/>
-      <c r="M51" s="231"/>
-      <c r="N51" s="234"/>
-      <c r="O51" s="235"/>
-      <c r="P51" s="235"/>
-      <c r="Q51" s="235"/>
-      <c r="R51" s="235"/>
-      <c r="S51" s="235"/>
-      <c r="T51" s="235"/>
-      <c r="U51" s="235"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="235"/>
-      <c r="X51" s="235"/>
-      <c r="Y51" s="235"/>
-      <c r="Z51" s="235"/>
-      <c r="AA51" s="235"/>
-      <c r="AB51" s="236"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="62"/>
+      <c r="AA51" s="62"/>
+      <c r="AB51" s="63"/>
     </row>
     <row r="52" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="226" t="s">
+      <c r="A52" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="227"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="227"/>
-      <c r="K52" s="227"/>
-      <c r="L52" s="227"/>
-      <c r="M52" s="228"/>
-      <c r="N52" s="237" t="s">
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="O52" s="238"/>
-      <c r="P52" s="238"/>
-      <c r="Q52" s="238"/>
-      <c r="R52" s="238"/>
-      <c r="S52" s="238"/>
-      <c r="T52" s="238"/>
-      <c r="U52" s="238"/>
-      <c r="V52" s="238"/>
-      <c r="W52" s="238"/>
-      <c r="X52" s="238"/>
-      <c r="Y52" s="238"/>
-      <c r="Z52" s="239" t="s">
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="65"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AA52" s="239"/>
-      <c r="AB52" s="240"/>
-    </row>
-    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A53" s="225" t="s">
+      <c r="AA52" s="66"/>
+      <c r="AB52" s="67"/>
+    </row>
+    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A53" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="225"/>
-      <c r="C53" s="225"/>
-      <c r="D53" s="225"/>
-      <c r="E53" s="225"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="225" t="s">
+      <c r="G53" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="H53" s="225"/>
-      <c r="I53" s="225"/>
-      <c r="J53" s="225"/>
-      <c r="K53" s="225"/>
-      <c r="L53" s="241" t="s">
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="M53" s="241"/>
-      <c r="N53" s="241"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="23" t="s">
         <v>120</v>
@@ -5341,14 +5341,423 @@
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
-      <c r="Z53" s="242" t="s">
+      <c r="Z53" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="AA53" s="242"/>
-      <c r="AB53" s="242"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="433">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="A3:B6"/>
+    <mergeCell ref="C3:G6"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:Q6"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:Q8"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:N10"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:N33"/>
+    <mergeCell ref="O18:O23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:N47"/>
+    <mergeCell ref="O34:O39"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="X47:Z47"/>
     <mergeCell ref="D46:E47"/>
     <mergeCell ref="F46:H47"/>
     <mergeCell ref="I46:J47"/>
@@ -5373,415 +5782,6 @@
     <mergeCell ref="N49:AB49"/>
     <mergeCell ref="A50:M50"/>
     <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:N47"/>
-    <mergeCell ref="O34:O39"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:N33"/>
-    <mergeCell ref="O18:O23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:N10"/>
-    <mergeCell ref="O9:S10"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="A2:AB2"/>
-    <mergeCell ref="A3:B6"/>
-    <mergeCell ref="C3:G6"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="T3:V4"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:Q6"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5802,12 +5802,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="80.625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5">
+    <row r="1" spans="1:2" ht="16.2">
       <c r="A1" s="258" t="s">
         <v>122</v>
       </c>
@@ -5844,7 +5844,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="7" spans="1:2" ht="16.5">
+    <row r="7" spans="1:2" ht="16.2">
       <c r="A7" s="258" t="s">
         <v>122</v>
       </c>
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="13" spans="1:2" ht="16.5">
+    <row r="13" spans="1:2" ht="16.2">
       <c r="A13" s="258" t="s">
         <v>122</v>
       </c>
@@ -5939,17 +5939,17 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="20.625" style="2"/>
+    <col min="1" max="1" width="40.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.15" customHeight="1">
+    <row r="1" spans="1:5" ht="25.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.15" customHeight="1">
+    <row r="33" spans="1:5" ht="25.2" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.15" customHeight="1">
+    <row r="34" spans="1:5" ht="25.2" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.15" customHeight="1">
+    <row r="35" spans="1:5" ht="25.2" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.15" customHeight="1">
+    <row r="36" spans="1:5" ht="25.2" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.15" customHeight="1">
+    <row r="37" spans="1:5" ht="25.2" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.15" customHeight="1">
+    <row r="38" spans="1:5" ht="25.2" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20" t="s">
@@ -6579,7 +6579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.15" customHeight="1">
+    <row r="39" spans="1:5" ht="25.2" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20" t="s">
@@ -6592,7 +6592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.15" customHeight="1">
+    <row r="40" spans="1:5" ht="25.2" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20" t="s">
@@ -6605,7 +6605,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.15" customHeight="1">
+    <row r="41" spans="1:5" ht="25.2" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20" t="s">
@@ -6618,7 +6618,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.15" customHeight="1">
+    <row r="42" spans="1:5" ht="25.2" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20" t="s">
@@ -6631,7 +6631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.15" customHeight="1">
+    <row r="43" spans="1:5" ht="25.2" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20" t="s">
@@ -6644,7 +6644,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.15" customHeight="1">
+    <row r="44" spans="1:5" ht="25.2" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20" t="s">
@@ -6657,7 +6657,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.15" customHeight="1">
+    <row r="45" spans="1:5" ht="25.2" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20" t="s">
@@ -6670,7 +6670,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.15" customHeight="1">
+    <row r="46" spans="1:5" ht="25.2" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20" t="s">
@@ -6683,7 +6683,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.15" customHeight="1">
+    <row r="47" spans="1:5" ht="25.2" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20" t="s">
@@ -6696,7 +6696,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.15" customHeight="1">
+    <row r="48" spans="1:5" ht="25.2" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20" t="s">
@@ -6709,7 +6709,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.15" customHeight="1">
+    <row r="49" spans="1:5" ht="25.2" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20" t="s">
@@ -6722,7 +6722,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.15" customHeight="1">
+    <row r="50" spans="1:5" ht="25.2" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20" t="s">
@@ -6735,7 +6735,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.15" customHeight="1">
+    <row r="51" spans="1:5" ht="25.2" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20" t="s">
@@ -6748,7 +6748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.15" customHeight="1">
+    <row r="52" spans="1:5" ht="25.2" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20" t="s">
@@ -6761,7 +6761,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.15" customHeight="1">
+    <row r="53" spans="1:5" ht="25.2" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20" t="s">
@@ -6774,7 +6774,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.15" customHeight="1">
+    <row r="54" spans="1:5" ht="25.2" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20" t="s">
@@ -6787,7 +6787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.15" customHeight="1">
+    <row r="55" spans="1:5" ht="25.2" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20" t="s">
@@ -6800,7 +6800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.15" customHeight="1">
+    <row r="56" spans="1:5" ht="25.2" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20" t="s">
@@ -6813,7 +6813,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.15" customHeight="1">
+    <row r="57" spans="1:5" ht="25.2" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20" t="s">
@@ -6826,7 +6826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.15" customHeight="1">
+    <row r="58" spans="1:5" ht="25.2" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20" t="s">
@@ -6839,7 +6839,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.15" customHeight="1">
+    <row r="59" spans="1:5" ht="25.2" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20" t="s">
@@ -6852,7 +6852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.15" customHeight="1">
+    <row r="60" spans="1:5" ht="25.2" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20" t="s">
@@ -6865,7 +6865,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.15" customHeight="1">
+    <row r="61" spans="1:5" ht="25.2" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20" t="s">
@@ -6878,7 +6878,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.15" customHeight="1">
+    <row r="62" spans="1:5" ht="25.2" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20" t="s">
@@ -6891,7 +6891,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.15" customHeight="1">
+    <row r="63" spans="1:5" ht="25.2" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20" t="s">
@@ -6904,7 +6904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.15" customHeight="1">
+    <row r="64" spans="1:5" ht="25.2" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20" t="s">
@@ -6917,7 +6917,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.15" customHeight="1">
+    <row r="65" spans="1:5" ht="25.2" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20" t="s">
@@ -6930,7 +6930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.15" customHeight="1">
+    <row r="66" spans="1:5" ht="25.2" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20" t="s">
@@ -6943,7 +6943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.15" customHeight="1">
+    <row r="67" spans="1:5" ht="25.2" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20" t="s">
@@ -6956,7 +6956,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.15" customHeight="1">
+    <row r="68" spans="1:5" ht="25.2" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20" t="s">
@@ -6969,7 +6969,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.15" customHeight="1">
+    <row r="69" spans="1:5" ht="25.2" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20" t="s">

--- a/src/app/data/example.xlsx
+++ b/src/app/data/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_future\front-end\angular-csv\src\app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexwang\Desktop\alexwang_work\angular-csv\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F2AED-B4FB-4D38-91BB-B293E9E20503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B86327-50E0-43DE-82F1-EB34BB5867CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108.06" sheetId="213" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="174">
   <si>
     <t>宗瑋工業股份有限公司Grand Dynasty Industrial Co., Ltd.</t>
   </si>
@@ -1075,20 +1075,24 @@
     <t>PPSU P 3010 本色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;T&quot;General"/>
-    <numFmt numFmtId="167" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="169" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
-    <numFmt numFmtId="171" formatCode="General\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;T&quot;General"/>
+    <numFmt numFmtId="178" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="182" formatCode="General\ &quot;kgs&quot;"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1329,7 +1333,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1589,13 +1593,13 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,7 +1655,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1660,16 +1664,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1696,25 +1700,562 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1738,9 +2279,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1750,9 +2288,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1774,24 +2309,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1807,10 +2330,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,13 +2342,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,13 +2360,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1864,531 +2387,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 11" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般 12" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2684,7 +2688,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3011,7 +3015,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3026,77 +3030,77 @@
   </sheetPr>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16:AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="1.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="1.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="2" style="8" customWidth="1"/>
     <col min="5" max="5" width="3" style="8" customWidth="1"/>
-    <col min="6" max="6" width="0.77734375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="0.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="4.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="8" customWidth="1"/>
     <col min="12" max="12" width="4" style="8" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="2.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="3.44140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="6.625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="2.375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="3.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="5.125" style="8" customWidth="1"/>
     <col min="20" max="20" width="2" style="8" customWidth="1"/>
-    <col min="21" max="21" width="2.109375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="1.77734375" style="8" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="1.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="4.21875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="4.21875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="3.44140625" style="8" customWidth="1"/>
-    <col min="29" max="31" width="5.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.21875" style="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="7.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="16384" width="5.109375" style="8"/>
+    <col min="21" max="21" width="2.125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="1.75" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="1.875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="4.25" style="8" customWidth="1"/>
+    <col min="26" max="26" width="4.375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="4.25" style="8" customWidth="1"/>
+    <col min="28" max="28" width="3.5" style="8" customWidth="1"/>
+    <col min="29" max="31" width="5.125" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.25" style="8" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="7.125" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" style="8" hidden="1" customWidth="1"/>
+    <col min="35" max="16384" width="5.125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.25" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
       <c r="AC1" s="24"/>
       <c r="AD1" s="24"/>
       <c r="AE1" s="24"/>
@@ -3104,36 +3108,36 @@
       <c r="AG1" s="24"/>
     </row>
     <row r="2" spans="1:33" ht="14.25" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="24"/>
@@ -3141,54 +3145,54 @@
       <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="1:33" ht="10.5" customHeight="1">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="206" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="207"/>
-      <c r="J3" s="210" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="211"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="216" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="196" t="s">
+      <c r="N3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="196" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="197"/>
-      <c r="T3" s="238" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="189"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="238" t="s">
+      <c r="U3" s="74"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="238" t="s">
+      <c r="X3" s="75"/>
+      <c r="Y3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="238" t="s">
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="190"/>
+      <c r="AB3" s="75"/>
       <c r="AC3" s="24"/>
       <c r="AD3" s="24"/>
       <c r="AE3" s="24"/>
@@ -3196,34 +3200,34 @@
       <c r="AG3" s="24"/>
     </row>
     <row r="4" spans="1:33" ht="10.5" customHeight="1">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="239"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="239"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="239"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="239"/>
-      <c r="AB4" s="158"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="78"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="24"/>
       <c r="AE4" s="24"/>
@@ -3231,48 +3235,48 @@
       <c r="AG4" s="24"/>
     </row>
     <row r="5" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A5" s="198"/>
-      <c r="B5" s="199"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="222" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="223"/>
-      <c r="J5" s="240" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="241"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="246">
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="85">
         <v>1</v>
       </c>
-      <c r="N5" s="248" t="s">
+      <c r="N5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="250"/>
-      <c r="R5" s="55" t="s">
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="57"/>
-      <c r="T5" s="188" t="s">
+      <c r="S5" s="94"/>
+      <c r="T5" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="189"/>
-      <c r="V5" s="190"/>
-      <c r="W5" s="183" t="s">
+      <c r="U5" s="74"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="184" t="s">
+      <c r="X5" s="111"/>
+      <c r="Y5" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="185"/>
+      <c r="Z5" s="113"/>
       <c r="AA5" s="25" t="s">
         <v>13</v>
       </c>
@@ -3286,34 +3290,34 @@
       <c r="AG5" s="24"/>
     </row>
     <row r="6" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="243"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="247"/>
-      <c r="N6" s="251"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="192"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="183"/>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="186" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="187"/>
+      <c r="Z6" s="115"/>
       <c r="AA6" s="25" t="s">
         <v>13</v>
       </c>
@@ -3335,42 +3339,42 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="222" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="223"/>
-      <c r="J7" s="226" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="227"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="246">
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="85">
         <v>2</v>
       </c>
-      <c r="N7" s="254"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="184" t="s">
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="185"/>
+      <c r="Z7" s="113"/>
       <c r="AA7" s="25"/>
       <c r="AB7" s="26" t="s">
         <v>15</v>
@@ -3390,34 +3394,34 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="256"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="180"/>
-      <c r="U8" s="181"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="186" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="187"/>
+      <c r="Z8" s="115"/>
       <c r="AA8" s="25"/>
       <c r="AB8" s="26" t="s">
         <v>17</v>
@@ -3437,51 +3441,51 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="18" customHeight="1">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="171" t="s">
+      <c r="B9" s="144"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="172"/>
+      <c r="F9" s="146"/>
       <c r="G9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="160" t="s">
+      <c r="H9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161" t="e">
+      <c r="I9" s="131"/>
+      <c r="J9" s="132" t="e">
         <f>VLOOKUP($Z$52,#REF!,7,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="118" t="s">
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="110" t="s">
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110" t="s">
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="120"/>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24">
         <v>65</v>
@@ -3497,41 +3501,41 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="22.5" customHeight="1">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="89" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
       <c r="Y10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z10" s="155" t="s">
+      <c r="Z10" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AA10" s="155"/>
+      <c r="AA10" s="122"/>
       <c r="AB10" s="12" t="s">
         <v>36</v>
       </c>
@@ -3550,52 +3554,52 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="21.75" customHeight="1">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="167" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="168" t="s">
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="133" t="s">
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="134" t="s">
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="154"/>
-      <c r="T11" s="159" t="s">
+      <c r="S11" s="127"/>
+      <c r="T11" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="154"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="128" t="s">
+      <c r="U11" s="127"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
       <c r="Z11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="128" t="s">
+      <c r="AA11" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="128"/>
+      <c r="AB11" s="130"/>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24">
         <v>80</v>
@@ -3611,48 +3615,48 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="128">
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="130">
         <v>1</v>
       </c>
-      <c r="G12" s="154"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="28">
         <v>2</v>
       </c>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="136" t="s">
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="136" t="s">
+      <c r="O12" s="151"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="137"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="143" t="s">
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="143"/>
-      <c r="X12" s="143"/>
-      <c r="Y12" s="143"/>
-      <c r="Z12" s="143" t="s">
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="AA12" s="143"/>
-      <c r="AB12" s="143"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24">
         <v>85</v>
@@ -3666,38 +3670,38 @@
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:33" ht="35.25" customHeight="1">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="28"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="151" t="s">
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="152"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
       <c r="AC13" s="24"/>
       <c r="AD13" s="24">
         <v>90</v>
@@ -3711,42 +3715,46 @@
       <c r="AG13" s="24"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="145" t="s">
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="129" t="s">
+      <c r="O14" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="97" t="s">
+      <c r="P14" s="160"/>
+      <c r="Q14" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="97"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="130">
+        <v>300</v>
+      </c>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130">
+        <v>20</v>
+      </c>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24">
         <v>95</v>
@@ -3760,40 +3768,44 @@
       <c r="AG14" s="24"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="129"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="141" t="s">
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="150"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="161" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15" s="162"/>
+      <c r="S15" s="130">
+        <v>20</v>
+      </c>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130">
+        <v>20</v>
+      </c>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
       <c r="AC15" s="24"/>
       <c r="AD15" s="24">
         <v>100</v>
@@ -3806,41 +3818,45 @@
       </c>
       <c r="AG15" s="24"/>
     </row>
-    <row r="16" spans="1:33" ht="16.2" customHeight="1">
-      <c r="A16" s="133" t="s">
+    <row r="16" spans="1:33" ht="16.149999999999999" customHeight="1">
+      <c r="A16" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="129"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="129" t="s">
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131" t="s">
+      <c r="P16" s="171"/>
+      <c r="Q16" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="132"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="130">
+        <v>80</v>
+      </c>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130">
+        <v>95</v>
+      </c>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
       <c r="AC16" s="24"/>
       <c r="AD16" s="24">
         <v>105</v>
@@ -3853,39 +3869,39 @@
       </c>
       <c r="AG16" s="24"/>
     </row>
-    <row r="17" spans="1:32" ht="16.95" customHeight="1">
-      <c r="A17" s="133" t="s">
+    <row r="17" spans="1:32" ht="16.899999999999999" customHeight="1">
+      <c r="A17" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="129"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="136" t="s">
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24">
         <v>110</v>
@@ -3898,44 +3914,44 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="170"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="113" t="s">
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="115" t="s">
+      <c r="O18" s="164" t="s">
         <v>71</v>
       </c>
       <c r="P18" s="6">
         <v>1</v>
       </c>
-      <c r="Q18" s="118" t="s">
+      <c r="Q18" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="118"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24">
         <v>115</v>
@@ -3948,40 +3964,40 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="170"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="116"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="177"/>
       <c r="P19" s="6">
         <v>2</v>
       </c>
-      <c r="Q19" s="118" t="s">
+      <c r="Q19" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R19" s="118"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
+      <c r="R19" s="138"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
       <c r="AC19" s="24"/>
       <c r="AD19" s="24">
         <v>120</v>
@@ -3994,40 +4010,40 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="170"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="116"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="177"/>
       <c r="P20" s="6">
         <v>3</v>
       </c>
-      <c r="Q20" s="118" t="s">
+      <c r="Q20" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R20" s="118"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
       <c r="AC20" s="24"/>
       <c r="AD20" s="24">
         <v>125</v>
@@ -4040,82 +4056,82 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="170"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="116"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="177"/>
       <c r="P21" s="6">
         <v>4</v>
       </c>
-      <c r="Q21" s="118" t="s">
+      <c r="Q21" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R21" s="118"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="116"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="177"/>
       <c r="P22" s="6">
         <v>5</v>
       </c>
-      <c r="Q22" s="118" t="s">
+      <c r="Q22" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R22" s="118"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24">
         <v>130</v>
@@ -4128,84 +4144,84 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="110" t="s">
+      <c r="A23" s="165"/>
+      <c r="B23" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="116"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="177"/>
       <c r="P23" s="6">
         <v>6</v>
       </c>
-      <c r="Q23" s="118" t="s">
+      <c r="Q23" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="118"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="109"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="169"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="170"/>
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="24"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="115" t="s">
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="164" t="s">
         <v>83</v>
       </c>
       <c r="P24" s="6">
         <v>1</v>
       </c>
-      <c r="Q24" s="124" t="s">
+      <c r="Q24" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="125"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
       <c r="AC24" s="24"/>
       <c r="AD24" s="24">
         <v>135</v>
@@ -4218,40 +4234,40 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="110" t="s">
+      <c r="A25" s="165"/>
+      <c r="B25" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="99"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="116"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="177"/>
       <c r="P25" s="6">
         <v>2</v>
       </c>
-      <c r="Q25" s="118" t="s">
+      <c r="Q25" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="118"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
       <c r="AC25" s="24"/>
       <c r="AD25" s="24">
         <v>140</v>
@@ -4260,44 +4276,44 @@
       <c r="AF25" s="24"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="97">
+      <c r="B26" s="152">
         <v>1</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97" t="s">
+      <c r="C26" s="152"/>
+      <c r="D26" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="99"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="117"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="165"/>
       <c r="P26" s="6">
         <v>3</v>
       </c>
-      <c r="Q26" s="118" t="s">
+      <c r="Q26" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="R26" s="118"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
       <c r="AC26" s="24"/>
       <c r="AD26" s="24">
         <v>145</v>
@@ -4306,42 +4322,42 @@
       <c r="AF26" s="24"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A27" s="110"/>
-      <c r="B27" s="97">
+      <c r="A27" s="120"/>
+      <c r="B27" s="152">
         <v>2</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97" t="s">
+      <c r="C27" s="152"/>
+      <c r="D27" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="99"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="119" t="s">
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="118" t="s">
+      <c r="P27" s="185"/>
+      <c r="Q27" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R27" s="118"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
       <c r="AC27" s="24"/>
       <c r="AD27" s="24">
         <v>150</v>
@@ -4350,988 +4366,988 @@
       <c r="AF27" s="24"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A28" s="110"/>
-      <c r="B28" s="97">
+      <c r="A28" s="120"/>
+      <c r="B28" s="152">
         <v>3</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97" t="s">
+      <c r="C28" s="152"/>
+      <c r="D28" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="110" t="s">
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="120" t="s">
         <v>87</v>
       </c>
       <c r="P28" s="6">
         <v>1</v>
       </c>
-      <c r="Q28" s="97" t="s">
+      <c r="Q28" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="R28" s="97"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="24"/>
       <c r="AF28" s="24"/>
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A29" s="110"/>
-      <c r="B29" s="97">
+      <c r="A29" s="120"/>
+      <c r="B29" s="152">
         <v>4</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97" t="s">
+      <c r="C29" s="152"/>
+      <c r="D29" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="110"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="120"/>
       <c r="P29" s="6">
         <v>2</v>
       </c>
-      <c r="Q29" s="97" t="s">
+      <c r="Q29" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="97"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
       <c r="AC29" s="24"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
     </row>
     <row r="30" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A30" s="110"/>
-      <c r="B30" s="97">
+      <c r="A30" s="120"/>
+      <c r="B30" s="152">
         <v>5</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97" t="s">
+      <c r="C30" s="152"/>
+      <c r="D30" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="170"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="110" t="s">
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="120" t="s">
         <v>88</v>
       </c>
       <c r="P30" s="6">
         <v>1</v>
       </c>
-      <c r="Q30" s="118" t="s">
+      <c r="Q30" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="118"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="24"/>
     </row>
     <row r="31" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A31" s="110"/>
-      <c r="B31" s="97">
+      <c r="A31" s="120"/>
+      <c r="B31" s="152">
         <v>6</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97" t="s">
+      <c r="C31" s="152"/>
+      <c r="D31" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="109"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="110"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="120"/>
       <c r="P31" s="6">
         <v>2</v>
       </c>
-      <c r="Q31" s="118" t="s">
+      <c r="Q31" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="118"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="24"/>
       <c r="AE31" s="24"/>
       <c r="AF31" s="24"/>
     </row>
     <row r="32" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="97" t="s">
+      <c r="C32" s="120"/>
+      <c r="D32" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="109"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="96" t="s">
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="97" t="s">
+      <c r="P32" s="187"/>
+      <c r="Q32" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="R32" s="97"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A33" s="110"/>
-      <c r="B33" s="110" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="97" t="s">
+      <c r="C33" s="120"/>
+      <c r="D33" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="96" t="s">
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="118" t="s">
+      <c r="P33" s="187"/>
+      <c r="Q33" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="R33" s="118"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="97" t="s">
+      <c r="C34" s="120"/>
+      <c r="D34" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="113" t="s">
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="O34" s="115" t="s">
+      <c r="O34" s="164" t="s">
         <v>96</v>
       </c>
       <c r="P34" s="6">
         <v>1</v>
       </c>
-      <c r="Q34" s="47" t="s">
+      <c r="Q34" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="47"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
+      <c r="R34" s="189"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A35" s="112"/>
-      <c r="B35" s="110" t="s">
+      <c r="A35" s="188"/>
+      <c r="B35" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="97" t="s">
+      <c r="C35" s="120"/>
+      <c r="D35" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="109"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="116"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="177"/>
       <c r="P35" s="6">
         <v>2</v>
       </c>
-      <c r="Q35" s="47" t="s">
+      <c r="Q35" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R35" s="47"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="89"/>
+      <c r="R35" s="189"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
+      <c r="Y35" s="121"/>
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="121"/>
+      <c r="AB35" s="121"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="97">
+      <c r="B36" s="152">
         <v>1</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="106" t="s">
+      <c r="C36" s="152"/>
+      <c r="D36" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="109"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="116"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="177"/>
       <c r="P36" s="6">
         <v>3</v>
       </c>
-      <c r="Q36" s="47" t="s">
+      <c r="Q36" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R36" s="47"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89"/>
+      <c r="R36" s="189"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="121"/>
+      <c r="AB36" s="121"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="97">
+      <c r="A37" s="177"/>
+      <c r="B37" s="152">
         <v>2</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="106" t="s">
+      <c r="C37" s="152"/>
+      <c r="D37" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="109"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="116"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="175"/>
+      <c r="O37" s="177"/>
       <c r="P37" s="6">
         <v>4</v>
       </c>
-      <c r="Q37" s="47" t="s">
+      <c r="Q37" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R37" s="47"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
+      <c r="R37" s="189"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="121"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="97">
+      <c r="A38" s="177"/>
+      <c r="B38" s="152">
         <v>3</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="106" t="s">
+      <c r="C38" s="152"/>
+      <c r="D38" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="109"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="116"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="177"/>
       <c r="P38" s="6">
         <v>5</v>
       </c>
-      <c r="Q38" s="47" t="s">
+      <c r="Q38" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R38" s="47"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="89"/>
+      <c r="R38" s="189"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="121"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="121"/>
+      <c r="W38" s="121"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="Z38" s="121"/>
+      <c r="AA38" s="121"/>
+      <c r="AB38" s="121"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="97">
+      <c r="A39" s="177"/>
+      <c r="B39" s="152">
         <v>4</v>
       </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="106" t="s">
+      <c r="C39" s="152"/>
+      <c r="D39" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="109"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="117"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="165"/>
       <c r="P39" s="6">
         <v>6</v>
       </c>
-      <c r="Q39" s="47" t="s">
+      <c r="Q39" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="47"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="89"/>
-      <c r="AA39" s="89"/>
-      <c r="AB39" s="89"/>
+      <c r="R39" s="189"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="121"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="121"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
+      <c r="Y39" s="121"/>
+      <c r="Z39" s="121"/>
+      <c r="AA39" s="121"/>
+      <c r="AB39" s="121"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="97">
+      <c r="A40" s="177"/>
+      <c r="B40" s="152">
         <v>5</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="106" t="s">
+      <c r="C40" s="152"/>
+      <c r="D40" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="110" t="s">
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="175"/>
+      <c r="O40" s="120" t="s">
         <v>99</v>
       </c>
       <c r="P40" s="6">
         <v>1</v>
       </c>
-      <c r="Q40" s="47" t="s">
+      <c r="Q40" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R40" s="47"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89"/>
+      <c r="R40" s="189"/>
+      <c r="S40" s="121"/>
+      <c r="T40" s="121"/>
+      <c r="U40" s="121"/>
+      <c r="V40" s="121"/>
+      <c r="W40" s="121"/>
+      <c r="X40" s="121"/>
+      <c r="Y40" s="121"/>
+      <c r="Z40" s="121"/>
+      <c r="AA40" s="121"/>
+      <c r="AB40" s="121"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="97">
+      <c r="A41" s="177"/>
+      <c r="B41" s="152">
         <v>6</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="106" t="s">
+      <c r="C41" s="152"/>
+      <c r="D41" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="109"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="170"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="110"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="175"/>
+      <c r="O41" s="120"/>
       <c r="P41" s="6">
         <v>2</v>
       </c>
-      <c r="Q41" s="47" t="s">
+      <c r="Q41" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R41" s="47"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
+      <c r="R41" s="189"/>
+      <c r="S41" s="121"/>
+      <c r="T41" s="121"/>
+      <c r="U41" s="121"/>
+      <c r="V41" s="121"/>
+      <c r="W41" s="121"/>
+      <c r="X41" s="121"/>
+      <c r="Y41" s="121"/>
+      <c r="Z41" s="121"/>
+      <c r="AA41" s="121"/>
+      <c r="AB41" s="121"/>
     </row>
     <row r="42" spans="1:28" ht="18" customHeight="1">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="106" t="s">
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="106"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="110"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="175"/>
+      <c r="O42" s="120"/>
       <c r="P42" s="6">
         <v>3</v>
       </c>
-      <c r="Q42" s="47" t="s">
+      <c r="Q42" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R42" s="47"/>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
-      <c r="V42" s="89"/>
-      <c r="W42" s="89"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="89"/>
-      <c r="AA42" s="89"/>
-      <c r="AB42" s="89"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="121"/>
+      <c r="AB42" s="121"/>
     </row>
     <row r="43" spans="1:28" ht="20.25" customHeight="1">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="100" t="s">
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="103" t="s">
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="175"/>
+      <c r="O43" s="195" t="s">
         <v>102</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="91" t="s">
+      <c r="P43" s="196"/>
+      <c r="Q43" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="R43" s="92"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="35"/>
+      <c r="R43" s="198"/>
+      <c r="S43" s="199"/>
+      <c r="T43" s="200"/>
+      <c r="U43" s="199"/>
+      <c r="V43" s="201"/>
+      <c r="W43" s="200"/>
+      <c r="X43" s="199"/>
+      <c r="Y43" s="201"/>
+      <c r="Z43" s="200"/>
+      <c r="AA43" s="199"/>
+      <c r="AB43" s="200"/>
     </row>
     <row r="44" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="100" t="s">
+      <c r="B44" s="186"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="99"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="180"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="101" t="s">
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="175"/>
+      <c r="O44" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="91" t="s">
+      <c r="P44" s="194"/>
+      <c r="Q44" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="92"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="35"/>
+      <c r="R44" s="198"/>
+      <c r="S44" s="199"/>
+      <c r="T44" s="200"/>
+      <c r="U44" s="203"/>
+      <c r="V44" s="204"/>
+      <c r="W44" s="205"/>
+      <c r="X44" s="199"/>
+      <c r="Y44" s="201"/>
+      <c r="Z44" s="200"/>
+      <c r="AA44" s="199"/>
+      <c r="AB44" s="200"/>
     </row>
     <row r="45" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="97" t="s">
+      <c r="B45" s="186"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="99"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="180"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="45" t="s">
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="175"/>
+      <c r="O45" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="47" t="s">
+      <c r="P45" s="224"/>
+      <c r="Q45" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R45" s="47"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="89"/>
+      <c r="R45" s="189"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="202"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202"/>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="121"/>
+      <c r="Z45" s="121"/>
+      <c r="AA45" s="121"/>
+      <c r="AB45" s="121"/>
     </row>
     <row r="46" spans="1:28" ht="21.75" customHeight="1">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="29" t="s">
+      <c r="B46" s="232"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="45" t="s">
+      <c r="E46" s="212"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="218"/>
+      <c r="J46" s="219"/>
+      <c r="K46" s="209"/>
+      <c r="L46" s="199"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="175"/>
+      <c r="O46" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="47" t="s">
+      <c r="P46" s="224"/>
+      <c r="Q46" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="R46" s="47"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
+      <c r="R46" s="189"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="202"/>
+      <c r="V46" s="202"/>
+      <c r="W46" s="202"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="121"/>
+      <c r="AA46" s="121"/>
+      <c r="AB46" s="121"/>
     </row>
     <row r="47" spans="1:28" ht="21.75" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="85" t="s">
+      <c r="A47" s="95"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="214"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="217"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="221"/>
+      <c r="K47" s="222"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="217"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="87" t="s">
+      <c r="P47" s="207"/>
+      <c r="Q47" s="208" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
+      <c r="R47" s="208"/>
+      <c r="S47" s="209"/>
+      <c r="T47" s="209"/>
+      <c r="U47" s="210"/>
+      <c r="V47" s="210"/>
+      <c r="W47" s="210"/>
+      <c r="X47" s="209"/>
+      <c r="Y47" s="209"/>
+      <c r="Z47" s="209"/>
+      <c r="AA47" s="209"/>
+      <c r="AB47" s="209"/>
     </row>
     <row r="48" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="70">
+      <c r="A48" s="243">
         <v>10</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="73" t="s">
+      <c r="B48" s="244"/>
+      <c r="C48" s="244"/>
+      <c r="D48" s="244"/>
+      <c r="E48" s="244"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="244"/>
+      <c r="H48" s="244"/>
+      <c r="I48" s="244"/>
+      <c r="J48" s="244"/>
+      <c r="K48" s="244"/>
+      <c r="L48" s="244"/>
+      <c r="M48" s="245"/>
+      <c r="N48" s="246" t="s">
         <v>111</v>
       </c>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="74"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="74"/>
-      <c r="AA48" s="74"/>
-      <c r="AB48" s="75"/>
+      <c r="O48" s="247"/>
+      <c r="P48" s="247"/>
+      <c r="Q48" s="247"/>
+      <c r="R48" s="247"/>
+      <c r="S48" s="247"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="247"/>
+      <c r="W48" s="247"/>
+      <c r="X48" s="247"/>
+      <c r="Y48" s="247"/>
+      <c r="Z48" s="247"/>
+      <c r="AA48" s="247"/>
+      <c r="AB48" s="248"/>
     </row>
     <row r="49" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="76">
+      <c r="A49" s="249">
         <v>10</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="79" t="s">
+      <c r="B49" s="250"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="250"/>
+      <c r="E49" s="250"/>
+      <c r="F49" s="250"/>
+      <c r="G49" s="250"/>
+      <c r="H49" s="250"/>
+      <c r="I49" s="250"/>
+      <c r="J49" s="250"/>
+      <c r="K49" s="250"/>
+      <c r="L49" s="250"/>
+      <c r="M49" s="251"/>
+      <c r="N49" s="252" t="s">
         <v>112</v>
       </c>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-      <c r="AA49" s="80"/>
-      <c r="AB49" s="81"/>
+      <c r="O49" s="253"/>
+      <c r="P49" s="253"/>
+      <c r="Q49" s="253"/>
+      <c r="R49" s="253"/>
+      <c r="S49" s="253"/>
+      <c r="T49" s="253"/>
+      <c r="U49" s="253"/>
+      <c r="V49" s="253"/>
+      <c r="W49" s="253"/>
+      <c r="X49" s="253"/>
+      <c r="Y49" s="253"/>
+      <c r="Z49" s="253"/>
+      <c r="AA49" s="253"/>
+      <c r="AB49" s="254"/>
     </row>
     <row r="50" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="255" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="61" t="s">
+      <c r="B50" s="256"/>
+      <c r="C50" s="256"/>
+      <c r="D50" s="256"/>
+      <c r="E50" s="256"/>
+      <c r="F50" s="256"/>
+      <c r="G50" s="256"/>
+      <c r="H50" s="256"/>
+      <c r="I50" s="256"/>
+      <c r="J50" s="256"/>
+      <c r="K50" s="256"/>
+      <c r="L50" s="256"/>
+      <c r="M50" s="257"/>
+      <c r="N50" s="234" t="s">
         <v>114</v>
       </c>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="63"/>
+      <c r="O50" s="235"/>
+      <c r="P50" s="235"/>
+      <c r="Q50" s="235"/>
+      <c r="R50" s="235"/>
+      <c r="S50" s="235"/>
+      <c r="T50" s="235"/>
+      <c r="U50" s="235"/>
+      <c r="V50" s="235"/>
+      <c r="W50" s="235"/>
+      <c r="X50" s="235"/>
+      <c r="Y50" s="235"/>
+      <c r="Z50" s="235"/>
+      <c r="AA50" s="235"/>
+      <c r="AB50" s="236"/>
     </row>
     <row r="51" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="229" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="63"/>
+      <c r="B51" s="230"/>
+      <c r="C51" s="230"/>
+      <c r="D51" s="230"/>
+      <c r="E51" s="230"/>
+      <c r="F51" s="230"/>
+      <c r="G51" s="230"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="230"/>
+      <c r="J51" s="230"/>
+      <c r="K51" s="230"/>
+      <c r="L51" s="230"/>
+      <c r="M51" s="231"/>
+      <c r="N51" s="234"/>
+      <c r="O51" s="235"/>
+      <c r="P51" s="235"/>
+      <c r="Q51" s="235"/>
+      <c r="R51" s="235"/>
+      <c r="S51" s="235"/>
+      <c r="T51" s="235"/>
+      <c r="U51" s="235"/>
+      <c r="V51" s="235"/>
+      <c r="W51" s="235"/>
+      <c r="X51" s="235"/>
+      <c r="Y51" s="235"/>
+      <c r="Z51" s="235"/>
+      <c r="AA51" s="235"/>
+      <c r="AB51" s="236"/>
     </row>
     <row r="52" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="64" t="s">
+      <c r="B52" s="227"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="227"/>
+      <c r="E52" s="227"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="227"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="227"/>
+      <c r="J52" s="227"/>
+      <c r="K52" s="227"/>
+      <c r="L52" s="227"/>
+      <c r="M52" s="228"/>
+      <c r="N52" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="66" t="s">
+      <c r="O52" s="238"/>
+      <c r="P52" s="238"/>
+      <c r="Q52" s="238"/>
+      <c r="R52" s="238"/>
+      <c r="S52" s="238"/>
+      <c r="T52" s="238"/>
+      <c r="U52" s="238"/>
+      <c r="V52" s="238"/>
+      <c r="W52" s="238"/>
+      <c r="X52" s="238"/>
+      <c r="Y52" s="238"/>
+      <c r="Z52" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="AA52" s="66"/>
-      <c r="AB52" s="67"/>
-    </row>
-    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A53" s="48" t="s">
+      <c r="AA52" s="239"/>
+      <c r="AB52" s="240"/>
+    </row>
+    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A53" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="225"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="48" t="s">
+      <c r="G53" s="225" t="s">
         <v>118</v>
       </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="68" t="s">
+      <c r="H53" s="225"/>
+      <c r="I53" s="225"/>
+      <c r="J53" s="225"/>
+      <c r="K53" s="225"/>
+      <c r="L53" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
+      <c r="M53" s="241"/>
+      <c r="N53" s="241"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="23" t="s">
         <v>120</v>
@@ -5341,14 +5357,423 @@
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
-      <c r="Z53" s="69" t="s">
+      <c r="Z53" s="242" t="s">
         <v>121</v>
       </c>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
+      <c r="AA53" s="242"/>
+      <c r="AB53" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="433">
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:M47"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="A52:M52"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A46:C47"/>
+    <mergeCell ref="N50:AB51"/>
+    <mergeCell ref="N52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="N48:AB48"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="N49:AB49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:N47"/>
+    <mergeCell ref="O34:O39"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:N33"/>
+    <mergeCell ref="O18:O23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:N10"/>
+    <mergeCell ref="O9:S10"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A2:AB2"/>
     <mergeCell ref="A3:B6"/>
@@ -5373,415 +5798,6 @@
     <mergeCell ref="R5:S6"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:Q8"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:N10"/>
-    <mergeCell ref="O9:S10"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:N33"/>
-    <mergeCell ref="O18:O23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:N47"/>
-    <mergeCell ref="O34:O39"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:M47"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A46:C47"/>
-    <mergeCell ref="N50:AB51"/>
-    <mergeCell ref="N52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="N48:AB48"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="N49:AB49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="AA47:AB47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5802,12 +5818,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="258" t="s">
         <v>122</v>
       </c>
@@ -5844,7 +5860,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="7" spans="1:2" ht="16.2">
+    <row r="7" spans="1:2" ht="16.5">
       <c r="A7" s="258" t="s">
         <v>122</v>
       </c>
@@ -5883,7 +5899,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="13" spans="1:2" ht="16.2">
+    <row r="13" spans="1:2" ht="16.5">
       <c r="A13" s="258" t="s">
         <v>122</v>
       </c>
@@ -5939,17 +5955,17 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="1" width="40.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="20.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" customHeight="1">
+    <row r="1" spans="1:5" ht="25.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -6487,7 +6503,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.2" customHeight="1">
+    <row r="33" spans="1:5" ht="25.15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
@@ -6504,7 +6520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.2" customHeight="1">
+    <row r="34" spans="1:5" ht="25.15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -6519,7 +6535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.2" customHeight="1">
+    <row r="35" spans="1:5" ht="25.15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -6536,7 +6552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.2" customHeight="1">
+    <row r="36" spans="1:5" ht="25.15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
@@ -6551,7 +6567,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.2" customHeight="1">
+    <row r="37" spans="1:5" ht="25.15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
@@ -6566,7 +6582,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.2" customHeight="1">
+    <row r="38" spans="1:5" ht="25.15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20" t="s">
@@ -6579,7 +6595,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.2" customHeight="1">
+    <row r="39" spans="1:5" ht="25.15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20" t="s">
@@ -6592,7 +6608,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.2" customHeight="1">
+    <row r="40" spans="1:5" ht="25.15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20" t="s">
@@ -6605,7 +6621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.2" customHeight="1">
+    <row r="41" spans="1:5" ht="25.15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20" t="s">
@@ -6618,7 +6634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.2" customHeight="1">
+    <row r="42" spans="1:5" ht="25.15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20" t="s">
@@ -6631,7 +6647,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.2" customHeight="1">
+    <row r="43" spans="1:5" ht="25.15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20" t="s">
@@ -6644,7 +6660,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" customHeight="1">
+    <row r="44" spans="1:5" ht="25.15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20" t="s">
@@ -6657,7 +6673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" customHeight="1">
+    <row r="45" spans="1:5" ht="25.15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20" t="s">
@@ -6670,7 +6686,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" customHeight="1">
+    <row r="46" spans="1:5" ht="25.15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20" t="s">
@@ -6683,7 +6699,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" customHeight="1">
+    <row r="47" spans="1:5" ht="25.15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20" t="s">
@@ -6696,7 +6712,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.2" customHeight="1">
+    <row r="48" spans="1:5" ht="25.15" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20" t="s">
@@ -6709,7 +6725,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.2" customHeight="1">
+    <row r="49" spans="1:5" ht="25.15" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20" t="s">
@@ -6722,7 +6738,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.2" customHeight="1">
+    <row r="50" spans="1:5" ht="25.15" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20" t="s">
@@ -6735,7 +6751,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.2" customHeight="1">
+    <row r="51" spans="1:5" ht="25.15" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20" t="s">
@@ -6748,7 +6764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.2" customHeight="1">
+    <row r="52" spans="1:5" ht="25.15" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20" t="s">
@@ -6761,7 +6777,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" customHeight="1">
+    <row r="53" spans="1:5" ht="25.15" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20" t="s">
@@ -6774,7 +6790,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" customHeight="1">
+    <row r="54" spans="1:5" ht="25.15" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20" t="s">
@@ -6787,7 +6803,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" customHeight="1">
+    <row r="55" spans="1:5" ht="25.15" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20" t="s">
@@ -6800,7 +6816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.2" customHeight="1">
+    <row r="56" spans="1:5" ht="25.15" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20" t="s">
@@ -6813,7 +6829,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.2" customHeight="1">
+    <row r="57" spans="1:5" ht="25.15" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20" t="s">
@@ -6826,7 +6842,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" customHeight="1">
+    <row r="58" spans="1:5" ht="25.15" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20" t="s">
@@ -6839,7 +6855,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.2" customHeight="1">
+    <row r="59" spans="1:5" ht="25.15" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20" t="s">
@@ -6852,7 +6868,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.2" customHeight="1">
+    <row r="60" spans="1:5" ht="25.15" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20" t="s">
@@ -6865,7 +6881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.2" customHeight="1">
+    <row r="61" spans="1:5" ht="25.15" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20" t="s">
@@ -6878,7 +6894,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.2" customHeight="1">
+    <row r="62" spans="1:5" ht="25.15" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20" t="s">
@@ -6891,7 +6907,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.2" customHeight="1">
+    <row r="63" spans="1:5" ht="25.15" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20" t="s">
@@ -6904,7 +6920,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.2" customHeight="1">
+    <row r="64" spans="1:5" ht="25.15" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20" t="s">
@@ -6917,7 +6933,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.2" customHeight="1">
+    <row r="65" spans="1:5" ht="25.15" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20" t="s">
@@ -6930,7 +6946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.2" customHeight="1">
+    <row r="66" spans="1:5" ht="25.15" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20" t="s">
@@ -6943,7 +6959,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.2" customHeight="1">
+    <row r="67" spans="1:5" ht="25.15" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20" t="s">
@@ -6956,7 +6972,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.2" customHeight="1">
+    <row r="68" spans="1:5" ht="25.15" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20" t="s">
@@ -6969,7 +6985,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" customHeight="1">
+    <row r="69" spans="1:5" ht="25.15" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20" t="s">

--- a/src/app/data/example.xlsx
+++ b/src/app/data/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_future\front-end\angular-csv\src\app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexwang\Desktop\alexwang_work\angular-csv\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F2AED-B4FB-4D38-91BB-B293E9E20503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F75689-5AA8-4620-97B1-7946A5FDD730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108.06" sheetId="213" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="174">
   <si>
     <t>宗瑋工業股份有限公司Grand Dynasty Industrial Co., Ltd.</t>
   </si>
@@ -1075,22 +1075,26 @@
     <t>PPSU P 3010 本色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;T&quot;General"/>
-    <numFmt numFmtId="167" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="169" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
-    <numFmt numFmtId="171" formatCode="General\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;T&quot;General"/>
+    <numFmt numFmtId="178" formatCode="&quot;標準：&quot;General\ &quot;T&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;成型條件設定事項：各設定值誤差界限 ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;Formation standard setting items: setting tolerance ±&quot;\ General\ &quot;%&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
+    <numFmt numFmtId="182" formatCode="General\ &quot;kgs&quot;"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -1329,7 +1333,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1340,6 +1344,12 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1589,13 +1599,13 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1608,7 +1618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,7 +1661,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="17" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1660,16 +1670,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1807,10 +1817,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,13 +1829,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,13 +1847,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,7 +2051,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2110,16 +2120,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2386,9 +2396,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 11" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般 12" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2684,7 +2697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3011,7 +3024,7 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3027,43 +3040,43 @@
   <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+      <selection activeCell="S16" sqref="S16:T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="1.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="1.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="2" style="8" customWidth="1"/>
     <col min="5" max="5" width="3" style="8" customWidth="1"/>
-    <col min="6" max="6" width="0.77734375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="0.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="4.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="8" customWidth="1"/>
     <col min="12" max="12" width="4" style="8" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="2.33203125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="3.44140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="6.625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="2.375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="3.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="5.125" style="8" customWidth="1"/>
     <col min="20" max="20" width="2" style="8" customWidth="1"/>
-    <col min="21" max="21" width="2.109375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="1.77734375" style="8" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="1.88671875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="4.21875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="4.21875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="3.44140625" style="8" customWidth="1"/>
-    <col min="29" max="31" width="5.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.21875" style="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="7.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="16384" width="5.109375" style="8"/>
+    <col min="21" max="21" width="2.125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="1.75" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="1.875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="4.25" style="8" customWidth="1"/>
+    <col min="26" max="26" width="4.375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="4.25" style="8" customWidth="1"/>
+    <col min="28" max="28" width="3.5" style="8" customWidth="1"/>
+    <col min="29" max="31" width="5.125" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.25" style="8" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="7.125" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" style="8" hidden="1" customWidth="1"/>
+    <col min="35" max="16384" width="5.125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.25" customHeight="1">
@@ -3737,9 +3750,13 @@
         <v>56</v>
       </c>
       <c r="R14" s="97"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
+      <c r="S14" s="259">
+        <v>300</v>
+      </c>
+      <c r="T14" s="259"/>
+      <c r="U14" s="128">
+        <v>20</v>
+      </c>
       <c r="V14" s="128"/>
       <c r="W14" s="128"/>
       <c r="X14" s="128"/>
@@ -3781,12 +3798,16 @@
       </c>
       <c r="P15" s="142"/>
       <c r="Q15" s="149" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="R15" s="150"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
+      <c r="S15" s="259">
+        <v>20</v>
+      </c>
+      <c r="T15" s="259"/>
+      <c r="U15" s="128">
+        <v>20</v>
+      </c>
       <c r="V15" s="128"/>
       <c r="W15" s="128"/>
       <c r="X15" s="128"/>
@@ -3806,7 +3827,7 @@
       </c>
       <c r="AG15" s="24"/>
     </row>
-    <row r="16" spans="1:33" ht="16.2" customHeight="1">
+    <row r="16" spans="1:33" ht="16.149999999999999" customHeight="1">
       <c r="A16" s="133" t="s">
         <v>62</v>
       </c>
@@ -3831,9 +3852,13 @@
         <v>64</v>
       </c>
       <c r="R16" s="132"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
+      <c r="S16" s="259">
+        <v>80</v>
+      </c>
+      <c r="T16" s="259"/>
+      <c r="U16" s="128">
+        <v>95</v>
+      </c>
       <c r="V16" s="128"/>
       <c r="W16" s="128"/>
       <c r="X16" s="128"/>
@@ -3853,7 +3878,7 @@
       </c>
       <c r="AG16" s="24"/>
     </row>
-    <row r="17" spans="1:32" ht="16.95" customHeight="1">
+    <row r="17" spans="1:32" ht="16.899999999999999" customHeight="1">
       <c r="A17" s="133" t="s">
         <v>66</v>
       </c>
@@ -5311,7 +5336,7 @@
       <c r="AA52" s="66"/>
       <c r="AB52" s="67"/>
     </row>
-    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.95" customHeight="1">
+    <row r="53" spans="1:28" s="22" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A53" s="48" t="s">
         <v>117</v>
       </c>
@@ -5802,12 +5827,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="258" t="s">
         <v>122</v>
       </c>
@@ -5844,7 +5869,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="7" spans="1:2" ht="16.2">
+    <row r="7" spans="1:2" ht="16.5">
       <c r="A7" s="258" t="s">
         <v>122</v>
       </c>
@@ -5883,7 +5908,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.25" customHeight="1"/>
-    <row r="13" spans="1:2" ht="16.2">
+    <row r="13" spans="1:2" ht="16.5">
       <c r="A13" s="258" t="s">
         <v>122</v>
       </c>
@@ -5939,17 +5964,17 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="1" width="40.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="20.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" customHeight="1">
+    <row r="1" spans="1:5" ht="25.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -6487,7 +6512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.2" customHeight="1">
+    <row r="33" spans="1:5" ht="25.15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
@@ -6504,7 +6529,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.2" customHeight="1">
+    <row r="34" spans="1:5" ht="25.15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -6519,7 +6544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.2" customHeight="1">
+    <row r="35" spans="1:5" ht="25.15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -6536,7 +6561,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.2" customHeight="1">
+    <row r="36" spans="1:5" ht="25.15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
@@ -6551,7 +6576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.2" customHeight="1">
+    <row r="37" spans="1:5" ht="25.15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
@@ -6566,7 +6591,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.2" customHeight="1">
+    <row r="38" spans="1:5" ht="25.15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20" t="s">
@@ -6579,7 +6604,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.2" customHeight="1">
+    <row r="39" spans="1:5" ht="25.15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20" t="s">
@@ -6592,7 +6617,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.2" customHeight="1">
+    <row r="40" spans="1:5" ht="25.15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20" t="s">
@@ -6605,7 +6630,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.2" customHeight="1">
+    <row r="41" spans="1:5" ht="25.15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20" t="s">
@@ -6618,7 +6643,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.2" customHeight="1">
+    <row r="42" spans="1:5" ht="25.15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20" t="s">
@@ -6631,7 +6656,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.2" customHeight="1">
+    <row r="43" spans="1:5" ht="25.15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20" t="s">
@@ -6644,7 +6669,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.2" customHeight="1">
+    <row r="44" spans="1:5" ht="25.15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20" t="s">
@@ -6657,7 +6682,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.2" customHeight="1">
+    <row r="45" spans="1:5" ht="25.15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20" t="s">
@@ -6670,7 +6695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.2" customHeight="1">
+    <row r="46" spans="1:5" ht="25.15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20" t="s">
@@ -6683,7 +6708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.2" customHeight="1">
+    <row r="47" spans="1:5" ht="25.15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20" t="s">
@@ -6696,7 +6721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.2" customHeight="1">
+    <row r="48" spans="1:5" ht="25.15" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20" t="s">
@@ -6709,7 +6734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.2" customHeight="1">
+    <row r="49" spans="1:5" ht="25.15" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20" t="s">
@@ -6722,7 +6747,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.2" customHeight="1">
+    <row r="50" spans="1:5" ht="25.15" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20" t="s">
@@ -6735,7 +6760,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.2" customHeight="1">
+    <row r="51" spans="1:5" ht="25.15" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20" t="s">
@@ -6748,7 +6773,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.2" customHeight="1">
+    <row r="52" spans="1:5" ht="25.15" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20" t="s">
@@ -6761,7 +6786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.2" customHeight="1">
+    <row r="53" spans="1:5" ht="25.15" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20" t="s">
@@ -6774,7 +6799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.2" customHeight="1">
+    <row r="54" spans="1:5" ht="25.15" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20" t="s">
@@ -6787,7 +6812,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.2" customHeight="1">
+    <row r="55" spans="1:5" ht="25.15" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20" t="s">
@@ -6800,7 +6825,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.2" customHeight="1">
+    <row r="56" spans="1:5" ht="25.15" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20" t="s">
@@ -6813,7 +6838,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.2" customHeight="1">
+    <row r="57" spans="1:5" ht="25.15" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20" t="s">
@@ -6826,7 +6851,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.2" customHeight="1">
+    <row r="58" spans="1:5" ht="25.15" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20" t="s">
@@ -6839,7 +6864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.2" customHeight="1">
+    <row r="59" spans="1:5" ht="25.15" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20" t="s">
@@ -6852,7 +6877,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.2" customHeight="1">
+    <row r="60" spans="1:5" ht="25.15" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20" t="s">
@@ -6865,7 +6890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.2" customHeight="1">
+    <row r="61" spans="1:5" ht="25.15" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20" t="s">
@@ -6878,7 +6903,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="25.2" customHeight="1">
+    <row r="62" spans="1:5" ht="25.15" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20" t="s">
@@ -6891,7 +6916,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.2" customHeight="1">
+    <row r="63" spans="1:5" ht="25.15" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20" t="s">
@@ -6904,7 +6929,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.2" customHeight="1">
+    <row r="64" spans="1:5" ht="25.15" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20" t="s">
@@ -6917,7 +6942,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.2" customHeight="1">
+    <row r="65" spans="1:5" ht="25.15" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20" t="s">
@@ -6930,7 +6955,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="25.2" customHeight="1">
+    <row r="66" spans="1:5" ht="25.15" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20" t="s">
@@ -6943,7 +6968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.2" customHeight="1">
+    <row r="67" spans="1:5" ht="25.15" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20" t="s">
@@ -6956,7 +6981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="25.2" customHeight="1">
+    <row r="68" spans="1:5" ht="25.15" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20" t="s">
@@ -6969,7 +6994,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="25.2" customHeight="1">
+    <row r="69" spans="1:5" ht="25.15" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20" t="s">

--- a/src/app/data/example.xlsx
+++ b/src/app/data/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexwang\Desktop\alexwang_work\angular-csv\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B86327-50E0-43DE-82F1-EB34BB5867CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC58F5CB-00FC-4BFD-A90F-D32265A1A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30765" yWindow="1980" windowWidth="17535" windowHeight="12300" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108.06" sheetId="213" state="hidden" r:id="rId1"/>
@@ -1094,7 +1094,7 @@
     <numFmt numFmtId="181" formatCode="#,##0;[Red]#,##0\ &quot;kgs&quot;"/>
     <numFmt numFmtId="182" formatCode="General\ &quot;kgs&quot;"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -1345,6 +1345,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1612,7 +1618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2070,6 +2076,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3030,8 +3039,8 @@
   </sheetPr>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16:AB16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5"/>
@@ -3722,34 +3731,34 @@
       <c r="C14" s="147"/>
       <c r="D14" s="147"/>
       <c r="E14" s="147"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="126"/>
       <c r="J14" s="129"/>
       <c r="K14" s="28"/>
       <c r="L14" s="130"/>
       <c r="M14" s="130"/>
-      <c r="N14" s="157" t="s">
+      <c r="N14" s="158" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="160"/>
+      <c r="P14" s="161"/>
       <c r="Q14" s="152" t="s">
         <v>56</v>
       </c>
       <c r="R14" s="152"/>
-      <c r="S14" s="130">
-        <v>300</v>
-      </c>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130">
-        <v>20</v>
-      </c>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
+      <c r="S14" s="153">
+        <v>100</v>
+      </c>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153">
+        <v>400</v>
+      </c>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
       <c r="X14" s="130"/>
       <c r="Y14" s="130"/>
       <c r="Z14" s="130"/>
@@ -3775,32 +3784,32 @@
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
       <c r="I15" s="126"/>
       <c r="J15" s="129"/>
       <c r="K15" s="28"/>
       <c r="L15" s="130"/>
       <c r="M15" s="130"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="154" t="s">
+      <c r="N15" s="159"/>
+      <c r="O15" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="161" t="s">
+      <c r="P15" s="156"/>
+      <c r="Q15" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="R15" s="162"/>
-      <c r="S15" s="130">
-        <v>20</v>
-      </c>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130">
-        <v>20</v>
-      </c>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="153">
+        <v>200</v>
+      </c>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153">
+        <v>500</v>
+      </c>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
       <c r="X15" s="130"/>
       <c r="Y15" s="130"/>
       <c r="Z15" s="130"/>
@@ -3826,32 +3835,32 @@
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
       <c r="I16" s="126"/>
       <c r="J16" s="129"/>
       <c r="K16" s="28"/>
       <c r="L16" s="130"/>
       <c r="M16" s="130"/>
-      <c r="N16" s="158"/>
+      <c r="N16" s="159"/>
       <c r="O16" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="172" t="s">
+      <c r="P16" s="172"/>
+      <c r="Q16" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="173"/>
-      <c r="S16" s="130">
-        <v>80</v>
-      </c>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130">
-        <v>95</v>
-      </c>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="153">
+        <v>300</v>
+      </c>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153">
+        <v>600</v>
+      </c>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
       <c r="X16" s="130"/>
       <c r="Y16" s="130"/>
       <c r="Z16" s="130"/>
@@ -3885,15 +3894,15 @@
       <c r="K17" s="28"/>
       <c r="L17" s="130"/>
       <c r="M17" s="130"/>
-      <c r="N17" s="159"/>
+      <c r="N17" s="160"/>
       <c r="O17" s="143" t="s">
         <v>67</v>
       </c>
       <c r="P17" s="151"/>
       <c r="Q17" s="151"/>
       <c r="R17" s="144"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="164"/>
       <c r="U17" s="130"/>
       <c r="V17" s="130"/>
       <c r="W17" s="130"/>
@@ -3924,15 +3933,15 @@
       <c r="F18" s="121"/>
       <c r="G18" s="121"/>
       <c r="H18" s="121"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
       <c r="K18" s="7"/>
       <c r="L18" s="121"/>
       <c r="M18" s="121"/>
-      <c r="N18" s="174" t="s">
+      <c r="N18" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="164" t="s">
+      <c r="O18" s="165" t="s">
         <v>71</v>
       </c>
       <c r="P18" s="6">
@@ -3974,13 +3983,13 @@
       <c r="F19" s="121"/>
       <c r="G19" s="121"/>
       <c r="H19" s="121"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
       <c r="K19" s="7"/>
       <c r="L19" s="121"/>
       <c r="M19" s="121"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="177"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="178"/>
       <c r="P19" s="6">
         <v>2</v>
       </c>
@@ -4020,13 +4029,13 @@
       <c r="F20" s="121"/>
       <c r="G20" s="121"/>
       <c r="H20" s="121"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
       <c r="K20" s="7"/>
       <c r="L20" s="121"/>
       <c r="M20" s="121"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="177"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="178"/>
       <c r="P20" s="6">
         <v>3</v>
       </c>
@@ -4066,13 +4075,13 @@
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
       <c r="H21" s="121"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
       <c r="K21" s="7"/>
       <c r="L21" s="121"/>
       <c r="M21" s="121"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="177"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="178"/>
       <c r="P21" s="6">
         <v>4</v>
       </c>
@@ -4096,25 +4105,25 @@
       <c r="AF21" s="24"/>
     </row>
     <row r="22" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="121"/>
       <c r="G22" s="121"/>
       <c r="H22" s="121"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="171"/>
       <c r="K22" s="7"/>
       <c r="L22" s="121"/>
       <c r="M22" s="121"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="177"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="178"/>
       <c r="P22" s="6">
         <v>5</v>
       </c>
@@ -4144,23 +4153,23 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A23" s="165"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="120" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="120"/>
       <c r="D23" s="120"/>
       <c r="E23" s="120"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="177"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="178"/>
       <c r="P23" s="6">
         <v>6</v>
       </c>
@@ -4168,50 +4177,50 @@
         <v>60</v>
       </c>
       <c r="R23" s="138"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="169"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="178"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="169"/>
-      <c r="AB23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="171"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="179"/>
+      <c r="W23" s="171"/>
+      <c r="X23" s="170"/>
+      <c r="Y23" s="179"/>
+      <c r="Z23" s="171"/>
+      <c r="AA23" s="170"/>
+      <c r="AB23" s="171"/>
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="24"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
       <c r="F24" s="121"/>
       <c r="G24" s="121"/>
       <c r="H24" s="121"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="181"/>
       <c r="K24" s="5"/>
       <c r="L24" s="121"/>
       <c r="M24" s="121"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="164" t="s">
+      <c r="N24" s="176"/>
+      <c r="O24" s="165" t="s">
         <v>83</v>
       </c>
       <c r="P24" s="6">
         <v>1</v>
       </c>
-      <c r="Q24" s="181" t="s">
+      <c r="Q24" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="182"/>
+      <c r="R24" s="183"/>
       <c r="S24" s="121"/>
       <c r="T24" s="121"/>
       <c r="U24" s="121"/>
@@ -4234,7 +4243,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A25" s="165"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="120" t="s">
         <v>81</v>
       </c>
@@ -4244,13 +4253,13 @@
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="121"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="181"/>
       <c r="K25" s="5"/>
       <c r="L25" s="121"/>
       <c r="M25" s="121"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="177"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="178"/>
       <c r="P25" s="6">
         <v>2</v>
       </c>
@@ -4290,13 +4299,13 @@
       <c r="F26" s="121"/>
       <c r="G26" s="121"/>
       <c r="H26" s="121"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="181"/>
       <c r="K26" s="5"/>
       <c r="L26" s="121"/>
       <c r="M26" s="121"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="165"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="166"/>
       <c r="P26" s="6">
         <v>3</v>
       </c>
@@ -4334,16 +4343,16 @@
       <c r="F27" s="121"/>
       <c r="G27" s="121"/>
       <c r="H27" s="121"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
       <c r="K27" s="5"/>
       <c r="L27" s="121"/>
       <c r="M27" s="121"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="184" t="s">
+      <c r="N27" s="176"/>
+      <c r="O27" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="P27" s="185"/>
+      <c r="P27" s="186"/>
       <c r="Q27" s="138" t="s">
         <v>60</v>
       </c>
@@ -4375,15 +4384,15 @@
         <v>56</v>
       </c>
       <c r="E28" s="152"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="170"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
       <c r="K28" s="5"/>
       <c r="L28" s="121"/>
       <c r="M28" s="121"/>
-      <c r="N28" s="175"/>
+      <c r="N28" s="176"/>
       <c r="O28" s="120" t="s">
         <v>87</v>
       </c>
@@ -4419,15 +4428,15 @@
         <v>56</v>
       </c>
       <c r="E29" s="152"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="170"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
       <c r="K29" s="5"/>
       <c r="L29" s="121"/>
       <c r="M29" s="121"/>
-      <c r="N29" s="175"/>
+      <c r="N29" s="176"/>
       <c r="O29" s="120"/>
       <c r="P29" s="6">
         <v>2</v>
@@ -4461,15 +4470,15 @@
         <v>56</v>
       </c>
       <c r="E30" s="152"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="170"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
       <c r="K30" s="5"/>
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
-      <c r="N30" s="175"/>
+      <c r="N30" s="176"/>
       <c r="O30" s="120" t="s">
         <v>88</v>
       </c>
@@ -4505,15 +4514,15 @@
         <v>56</v>
       </c>
       <c r="E31" s="152"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="170"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
       <c r="K31" s="5"/>
       <c r="L31" s="121"/>
       <c r="M31" s="121"/>
-      <c r="N31" s="175"/>
+      <c r="N31" s="176"/>
       <c r="O31" s="120"/>
       <c r="P31" s="6">
         <v>2</v>
@@ -4549,19 +4558,19 @@
         <v>56</v>
       </c>
       <c r="E32" s="152"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="170"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
       <c r="K32" s="5"/>
       <c r="L32" s="121"/>
       <c r="M32" s="121"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="186" t="s">
+      <c r="N32" s="176"/>
+      <c r="O32" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="187"/>
+      <c r="P32" s="188"/>
       <c r="Q32" s="152" t="s">
         <v>56</v>
       </c>
@@ -4591,19 +4600,19 @@
         <v>56</v>
       </c>
       <c r="E33" s="152"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="170"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="171"/>
       <c r="K33" s="5"/>
       <c r="L33" s="121"/>
       <c r="M33" s="121"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="186" t="s">
+      <c r="N33" s="177"/>
+      <c r="O33" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="P33" s="187"/>
+      <c r="P33" s="188"/>
       <c r="Q33" s="138" t="s">
         <v>60</v>
       </c>
@@ -4620,7 +4629,7 @@
       <c r="AB33" s="121"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A34" s="188" t="s">
+      <c r="A34" s="189" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="120" t="s">
@@ -4631,27 +4640,27 @@
         <v>56</v>
       </c>
       <c r="E34" s="152"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="170"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="171"/>
       <c r="K34" s="5"/>
       <c r="L34" s="121"/>
       <c r="M34" s="121"/>
-      <c r="N34" s="174" t="s">
+      <c r="N34" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="O34" s="164" t="s">
+      <c r="O34" s="165" t="s">
         <v>96</v>
       </c>
       <c r="P34" s="6">
         <v>1</v>
       </c>
-      <c r="Q34" s="189" t="s">
+      <c r="Q34" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="189"/>
+      <c r="R34" s="190"/>
       <c r="S34" s="121"/>
       <c r="T34" s="121"/>
       <c r="U34" s="121"/>
@@ -4664,7 +4673,7 @@
       <c r="AB34" s="121"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A35" s="188"/>
+      <c r="A35" s="189"/>
       <c r="B35" s="120" t="s">
         <v>92</v>
       </c>
@@ -4673,23 +4682,23 @@
         <v>56</v>
       </c>
       <c r="E35" s="152"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="170"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="171"/>
       <c r="K35" s="5"/>
       <c r="L35" s="121"/>
       <c r="M35" s="121"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="177"/>
+      <c r="N35" s="176"/>
+      <c r="O35" s="178"/>
       <c r="P35" s="6">
         <v>2</v>
       </c>
-      <c r="Q35" s="189" t="s">
+      <c r="Q35" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R35" s="189"/>
+      <c r="R35" s="190"/>
       <c r="S35" s="121"/>
       <c r="T35" s="121"/>
       <c r="U35" s="121"/>
@@ -4702,34 +4711,34 @@
       <c r="AB35" s="121"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="165" t="s">
         <v>98</v>
       </c>
       <c r="B36" s="152">
         <v>1</v>
       </c>
       <c r="C36" s="152"/>
-      <c r="D36" s="190" t="s">
+      <c r="D36" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="190"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="171"/>
       <c r="K36" s="5"/>
       <c r="L36" s="121"/>
       <c r="M36" s="121"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="177"/>
+      <c r="N36" s="176"/>
+      <c r="O36" s="178"/>
       <c r="P36" s="6">
         <v>3</v>
       </c>
-      <c r="Q36" s="189" t="s">
+      <c r="Q36" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R36" s="189"/>
+      <c r="R36" s="190"/>
       <c r="S36" s="121"/>
       <c r="T36" s="121"/>
       <c r="U36" s="121"/>
@@ -4742,32 +4751,32 @@
       <c r="AB36" s="121"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A37" s="177"/>
+      <c r="A37" s="178"/>
       <c r="B37" s="152">
         <v>2</v>
       </c>
       <c r="C37" s="152"/>
-      <c r="D37" s="190" t="s">
+      <c r="D37" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="190"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="170"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="171"/>
       <c r="K37" s="5"/>
       <c r="L37" s="121"/>
       <c r="M37" s="121"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="177"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="178"/>
       <c r="P37" s="6">
         <v>4</v>
       </c>
-      <c r="Q37" s="189" t="s">
+      <c r="Q37" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R37" s="189"/>
+      <c r="R37" s="190"/>
       <c r="S37" s="121"/>
       <c r="T37" s="121"/>
       <c r="U37" s="121"/>
@@ -4780,32 +4789,32 @@
       <c r="AB37" s="121"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A38" s="177"/>
+      <c r="A38" s="178"/>
       <c r="B38" s="152">
         <v>3</v>
       </c>
       <c r="C38" s="152"/>
-      <c r="D38" s="190" t="s">
+      <c r="D38" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="190"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="170"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="171"/>
       <c r="K38" s="5"/>
       <c r="L38" s="121"/>
       <c r="M38" s="121"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="177"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="178"/>
       <c r="P38" s="6">
         <v>5</v>
       </c>
-      <c r="Q38" s="189" t="s">
+      <c r="Q38" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R38" s="189"/>
+      <c r="R38" s="190"/>
       <c r="S38" s="121"/>
       <c r="T38" s="121"/>
       <c r="U38" s="121"/>
@@ -4818,32 +4827,32 @@
       <c r="AB38" s="121"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A39" s="177"/>
+      <c r="A39" s="178"/>
       <c r="B39" s="152">
         <v>4</v>
       </c>
       <c r="C39" s="152"/>
-      <c r="D39" s="190" t="s">
+      <c r="D39" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="190"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="170"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
       <c r="K39" s="5"/>
       <c r="L39" s="121"/>
       <c r="M39" s="121"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="165"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="166"/>
       <c r="P39" s="6">
         <v>6</v>
       </c>
-      <c r="Q39" s="189" t="s">
+      <c r="Q39" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="189"/>
+      <c r="R39" s="190"/>
       <c r="S39" s="121"/>
       <c r="T39" s="121"/>
       <c r="U39" s="121"/>
@@ -4856,34 +4865,34 @@
       <c r="AB39" s="121"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A40" s="177"/>
+      <c r="A40" s="178"/>
       <c r="B40" s="152">
         <v>5</v>
       </c>
       <c r="C40" s="152"/>
-      <c r="D40" s="190" t="s">
+      <c r="D40" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="190"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="170"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="5"/>
       <c r="L40" s="121"/>
       <c r="M40" s="121"/>
-      <c r="N40" s="175"/>
+      <c r="N40" s="176"/>
       <c r="O40" s="120" t="s">
         <v>99</v>
       </c>
       <c r="P40" s="6">
         <v>1</v>
       </c>
-      <c r="Q40" s="189" t="s">
+      <c r="Q40" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R40" s="189"/>
+      <c r="R40" s="190"/>
       <c r="S40" s="121"/>
       <c r="T40" s="121"/>
       <c r="U40" s="121"/>
@@ -4896,32 +4905,32 @@
       <c r="AB40" s="121"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A41" s="177"/>
+      <c r="A41" s="178"/>
       <c r="B41" s="152">
         <v>6</v>
       </c>
       <c r="C41" s="152"/>
-      <c r="D41" s="190" t="s">
+      <c r="D41" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="190"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="183"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="170"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="5"/>
       <c r="L41" s="121"/>
       <c r="M41" s="121"/>
-      <c r="N41" s="175"/>
+      <c r="N41" s="176"/>
       <c r="O41" s="120"/>
       <c r="P41" s="6">
         <v>2</v>
       </c>
-      <c r="Q41" s="189" t="s">
+      <c r="Q41" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R41" s="189"/>
+      <c r="R41" s="190"/>
       <c r="S41" s="121"/>
       <c r="T41" s="121"/>
       <c r="U41" s="121"/>
@@ -4934,32 +4943,32 @@
       <c r="AB41" s="121"/>
     </row>
     <row r="42" spans="1:28" ht="18" customHeight="1">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="190" t="s">
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="190"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181"/>
       <c r="K42" s="5"/>
       <c r="L42" s="121"/>
       <c r="M42" s="121"/>
-      <c r="N42" s="175"/>
+      <c r="N42" s="176"/>
       <c r="O42" s="120"/>
       <c r="P42" s="6">
         <v>3</v>
       </c>
-      <c r="Q42" s="189" t="s">
+      <c r="Q42" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R42" s="189"/>
+      <c r="R42" s="190"/>
       <c r="S42" s="121"/>
       <c r="T42" s="121"/>
       <c r="U42" s="121"/>
@@ -4972,87 +4981,87 @@
       <c r="AB42" s="121"/>
     </row>
     <row r="43" spans="1:28" ht="20.25" customHeight="1">
-      <c r="A43" s="186" t="s">
+      <c r="A43" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="192" t="s">
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="193" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="192"/>
+      <c r="E43" s="193"/>
       <c r="F43" s="121"/>
       <c r="G43" s="121"/>
       <c r="H43" s="121"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="181"/>
       <c r="K43" s="5"/>
       <c r="L43" s="121"/>
       <c r="M43" s="121"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="195" t="s">
+      <c r="N43" s="176"/>
+      <c r="O43" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="P43" s="196"/>
-      <c r="Q43" s="197" t="s">
+      <c r="P43" s="197"/>
+      <c r="Q43" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="R43" s="198"/>
-      <c r="S43" s="199"/>
-      <c r="T43" s="200"/>
-      <c r="U43" s="199"/>
-      <c r="V43" s="201"/>
-      <c r="W43" s="200"/>
-      <c r="X43" s="199"/>
-      <c r="Y43" s="201"/>
-      <c r="Z43" s="200"/>
-      <c r="AA43" s="199"/>
-      <c r="AB43" s="200"/>
+      <c r="R43" s="199"/>
+      <c r="S43" s="200"/>
+      <c r="T43" s="201"/>
+      <c r="U43" s="200"/>
+      <c r="V43" s="202"/>
+      <c r="W43" s="201"/>
+      <c r="X43" s="200"/>
+      <c r="Y43" s="202"/>
+      <c r="Z43" s="201"/>
+      <c r="AA43" s="200"/>
+      <c r="AB43" s="201"/>
     </row>
     <row r="44" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="192" t="s">
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="193" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="192"/>
+      <c r="E44" s="193"/>
       <c r="F44" s="121"/>
       <c r="G44" s="121"/>
       <c r="H44" s="121"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="180"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="181"/>
       <c r="K44" s="5"/>
       <c r="L44" s="121"/>
       <c r="M44" s="121"/>
-      <c r="N44" s="175"/>
-      <c r="O44" s="193" t="s">
+      <c r="N44" s="176"/>
+      <c r="O44" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="197" t="s">
+      <c r="P44" s="195"/>
+      <c r="Q44" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="198"/>
-      <c r="S44" s="199"/>
-      <c r="T44" s="200"/>
-      <c r="U44" s="203"/>
-      <c r="V44" s="204"/>
-      <c r="W44" s="205"/>
-      <c r="X44" s="199"/>
-      <c r="Y44" s="201"/>
-      <c r="Z44" s="200"/>
-      <c r="AA44" s="199"/>
-      <c r="AB44" s="200"/>
+      <c r="R44" s="199"/>
+      <c r="S44" s="200"/>
+      <c r="T44" s="201"/>
+      <c r="U44" s="204"/>
+      <c r="V44" s="205"/>
+      <c r="W44" s="206"/>
+      <c r="X44" s="200"/>
+      <c r="Y44" s="202"/>
+      <c r="Z44" s="201"/>
+      <c r="AA44" s="200"/>
+      <c r="AB44" s="201"/>
     </row>
     <row r="45" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
       <c r="D45" s="152" t="s">
         <v>60</v>
       </c>
@@ -5060,25 +5069,25 @@
       <c r="F45" s="121"/>
       <c r="G45" s="121"/>
       <c r="H45" s="121"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="181"/>
       <c r="K45" s="5"/>
       <c r="L45" s="121"/>
       <c r="M45" s="121"/>
-      <c r="N45" s="175"/>
-      <c r="O45" s="223" t="s">
+      <c r="N45" s="176"/>
+      <c r="O45" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="224"/>
-      <c r="Q45" s="189" t="s">
+      <c r="P45" s="225"/>
+      <c r="Q45" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R45" s="189"/>
+      <c r="R45" s="190"/>
       <c r="S45" s="121"/>
       <c r="T45" s="121"/>
-      <c r="U45" s="202"/>
-      <c r="V45" s="202"/>
-      <c r="W45" s="202"/>
+      <c r="U45" s="203"/>
+      <c r="V45" s="203"/>
+      <c r="W45" s="203"/>
       <c r="X45" s="121"/>
       <c r="Y45" s="121"/>
       <c r="Z45" s="121"/>
@@ -5089,34 +5098,34 @@
       <c r="A46" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="232"/>
+      <c r="B46" s="233"/>
       <c r="C46" s="94"/>
-      <c r="D46" s="211" t="s">
+      <c r="D46" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="212"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="200"/>
-      <c r="I46" s="218"/>
-      <c r="J46" s="219"/>
-      <c r="K46" s="209"/>
-      <c r="L46" s="199"/>
-      <c r="M46" s="200"/>
-      <c r="N46" s="175"/>
-      <c r="O46" s="223" t="s">
+      <c r="E46" s="213"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="202"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="219"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="210"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="201"/>
+      <c r="N46" s="176"/>
+      <c r="O46" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="P46" s="224"/>
-      <c r="Q46" s="189" t="s">
+      <c r="P46" s="225"/>
+      <c r="Q46" s="190" t="s">
         <v>97</v>
       </c>
-      <c r="R46" s="189"/>
+      <c r="R46" s="190"/>
       <c r="S46" s="121"/>
       <c r="T46" s="121"/>
-      <c r="U46" s="202"/>
-      <c r="V46" s="202"/>
-      <c r="W46" s="202"/>
+      <c r="U46" s="203"/>
+      <c r="V46" s="203"/>
+      <c r="W46" s="203"/>
       <c r="X46" s="121"/>
       <c r="Y46" s="121"/>
       <c r="Z46" s="121"/>
@@ -5125,229 +5134,229 @@
     </row>
     <row r="47" spans="1:28" ht="21.75" customHeight="1">
       <c r="A47" s="95"/>
-      <c r="B47" s="233"/>
+      <c r="B47" s="234"/>
       <c r="C47" s="96"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="214"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="216"/>
-      <c r="H47" s="217"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="221"/>
-      <c r="K47" s="222"/>
-      <c r="L47" s="215"/>
-      <c r="M47" s="217"/>
-      <c r="N47" s="175"/>
-      <c r="O47" s="206" t="s">
+      <c r="D47" s="214"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="217"/>
+      <c r="H47" s="218"/>
+      <c r="I47" s="221"/>
+      <c r="J47" s="222"/>
+      <c r="K47" s="223"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="218"/>
+      <c r="N47" s="176"/>
+      <c r="O47" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="P47" s="207"/>
-      <c r="Q47" s="208" t="s">
+      <c r="P47" s="208"/>
+      <c r="Q47" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="208"/>
-      <c r="S47" s="209"/>
-      <c r="T47" s="209"/>
-      <c r="U47" s="210"/>
-      <c r="V47" s="210"/>
-      <c r="W47" s="210"/>
-      <c r="X47" s="209"/>
-      <c r="Y47" s="209"/>
-      <c r="Z47" s="209"/>
-      <c r="AA47" s="209"/>
-      <c r="AB47" s="209"/>
+      <c r="R47" s="209"/>
+      <c r="S47" s="210"/>
+      <c r="T47" s="210"/>
+      <c r="U47" s="211"/>
+      <c r="V47" s="211"/>
+      <c r="W47" s="211"/>
+      <c r="X47" s="210"/>
+      <c r="Y47" s="210"/>
+      <c r="Z47" s="210"/>
+      <c r="AA47" s="210"/>
+      <c r="AB47" s="210"/>
     </row>
     <row r="48" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="243">
+      <c r="A48" s="244">
         <v>10</v>
       </c>
-      <c r="B48" s="244"/>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="244"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="244"/>
-      <c r="J48" s="244"/>
-      <c r="K48" s="244"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="245"/>
-      <c r="N48" s="246" t="s">
+      <c r="B48" s="245"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="245"/>
+      <c r="E48" s="245"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="245"/>
+      <c r="H48" s="245"/>
+      <c r="I48" s="245"/>
+      <c r="J48" s="245"/>
+      <c r="K48" s="245"/>
+      <c r="L48" s="245"/>
+      <c r="M48" s="246"/>
+      <c r="N48" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="O48" s="247"/>
-      <c r="P48" s="247"/>
-      <c r="Q48" s="247"/>
-      <c r="R48" s="247"/>
-      <c r="S48" s="247"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="247"/>
-      <c r="V48" s="247"/>
-      <c r="W48" s="247"/>
-      <c r="X48" s="247"/>
-      <c r="Y48" s="247"/>
-      <c r="Z48" s="247"/>
-      <c r="AA48" s="247"/>
-      <c r="AB48" s="248"/>
+      <c r="O48" s="248"/>
+      <c r="P48" s="248"/>
+      <c r="Q48" s="248"/>
+      <c r="R48" s="248"/>
+      <c r="S48" s="248"/>
+      <c r="T48" s="248"/>
+      <c r="U48" s="248"/>
+      <c r="V48" s="248"/>
+      <c r="W48" s="248"/>
+      <c r="X48" s="248"/>
+      <c r="Y48" s="248"/>
+      <c r="Z48" s="248"/>
+      <c r="AA48" s="248"/>
+      <c r="AB48" s="249"/>
     </row>
     <row r="49" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="249">
+      <c r="A49" s="250">
         <v>10</v>
       </c>
-      <c r="B49" s="250"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="250"/>
-      <c r="J49" s="250"/>
-      <c r="K49" s="250"/>
-      <c r="L49" s="250"/>
-      <c r="M49" s="251"/>
-      <c r="N49" s="252" t="s">
+      <c r="B49" s="251"/>
+      <c r="C49" s="251"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="251"/>
+      <c r="F49" s="251"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="251"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="251"/>
+      <c r="K49" s="251"/>
+      <c r="L49" s="251"/>
+      <c r="M49" s="252"/>
+      <c r="N49" s="253" t="s">
         <v>112</v>
       </c>
-      <c r="O49" s="253"/>
-      <c r="P49" s="253"/>
-      <c r="Q49" s="253"/>
-      <c r="R49" s="253"/>
-      <c r="S49" s="253"/>
-      <c r="T49" s="253"/>
-      <c r="U49" s="253"/>
-      <c r="V49" s="253"/>
-      <c r="W49" s="253"/>
-      <c r="X49" s="253"/>
-      <c r="Y49" s="253"/>
-      <c r="Z49" s="253"/>
-      <c r="AA49" s="253"/>
-      <c r="AB49" s="254"/>
+      <c r="O49" s="254"/>
+      <c r="P49" s="254"/>
+      <c r="Q49" s="254"/>
+      <c r="R49" s="254"/>
+      <c r="S49" s="254"/>
+      <c r="T49" s="254"/>
+      <c r="U49" s="254"/>
+      <c r="V49" s="254"/>
+      <c r="W49" s="254"/>
+      <c r="X49" s="254"/>
+      <c r="Y49" s="254"/>
+      <c r="Z49" s="254"/>
+      <c r="AA49" s="254"/>
+      <c r="AB49" s="255"/>
     </row>
     <row r="50" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="255" t="s">
+      <c r="A50" s="256" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="256"/>
-      <c r="C50" s="256"/>
-      <c r="D50" s="256"/>
-      <c r="E50" s="256"/>
-      <c r="F50" s="256"/>
-      <c r="G50" s="256"/>
-      <c r="H50" s="256"/>
-      <c r="I50" s="256"/>
-      <c r="J50" s="256"/>
-      <c r="K50" s="256"/>
-      <c r="L50" s="256"/>
-      <c r="M50" s="257"/>
-      <c r="N50" s="234" t="s">
+      <c r="B50" s="257"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="257"/>
+      <c r="E50" s="257"/>
+      <c r="F50" s="257"/>
+      <c r="G50" s="257"/>
+      <c r="H50" s="257"/>
+      <c r="I50" s="257"/>
+      <c r="J50" s="257"/>
+      <c r="K50" s="257"/>
+      <c r="L50" s="257"/>
+      <c r="M50" s="258"/>
+      <c r="N50" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="O50" s="235"/>
-      <c r="P50" s="235"/>
-      <c r="Q50" s="235"/>
-      <c r="R50" s="235"/>
-      <c r="S50" s="235"/>
-      <c r="T50" s="235"/>
-      <c r="U50" s="235"/>
-      <c r="V50" s="235"/>
-      <c r="W50" s="235"/>
-      <c r="X50" s="235"/>
-      <c r="Y50" s="235"/>
-      <c r="Z50" s="235"/>
-      <c r="AA50" s="235"/>
-      <c r="AB50" s="236"/>
+      <c r="O50" s="236"/>
+      <c r="P50" s="236"/>
+      <c r="Q50" s="236"/>
+      <c r="R50" s="236"/>
+      <c r="S50" s="236"/>
+      <c r="T50" s="236"/>
+      <c r="U50" s="236"/>
+      <c r="V50" s="236"/>
+      <c r="W50" s="236"/>
+      <c r="X50" s="236"/>
+      <c r="Y50" s="236"/>
+      <c r="Z50" s="236"/>
+      <c r="AA50" s="236"/>
+      <c r="AB50" s="237"/>
     </row>
     <row r="51" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="229" t="s">
+      <c r="A51" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="230"/>
-      <c r="C51" s="230"/>
-      <c r="D51" s="230"/>
-      <c r="E51" s="230"/>
-      <c r="F51" s="230"/>
-      <c r="G51" s="230"/>
-      <c r="H51" s="230"/>
-      <c r="I51" s="230"/>
-      <c r="J51" s="230"/>
-      <c r="K51" s="230"/>
-      <c r="L51" s="230"/>
-      <c r="M51" s="231"/>
-      <c r="N51" s="234"/>
-      <c r="O51" s="235"/>
-      <c r="P51" s="235"/>
-      <c r="Q51" s="235"/>
-      <c r="R51" s="235"/>
-      <c r="S51" s="235"/>
-      <c r="T51" s="235"/>
-      <c r="U51" s="235"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="235"/>
-      <c r="X51" s="235"/>
-      <c r="Y51" s="235"/>
-      <c r="Z51" s="235"/>
-      <c r="AA51" s="235"/>
-      <c r="AB51" s="236"/>
+      <c r="B51" s="231"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="231"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="231"/>
+      <c r="K51" s="231"/>
+      <c r="L51" s="231"/>
+      <c r="M51" s="232"/>
+      <c r="N51" s="235"/>
+      <c r="O51" s="236"/>
+      <c r="P51" s="236"/>
+      <c r="Q51" s="236"/>
+      <c r="R51" s="236"/>
+      <c r="S51" s="236"/>
+      <c r="T51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="236"/>
+      <c r="Z51" s="236"/>
+      <c r="AA51" s="236"/>
+      <c r="AB51" s="237"/>
     </row>
     <row r="52" spans="1:28" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="226" t="s">
+      <c r="A52" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="227"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="227"/>
-      <c r="K52" s="227"/>
-      <c r="L52" s="227"/>
-      <c r="M52" s="228"/>
-      <c r="N52" s="237" t="s">
+      <c r="B52" s="228"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="228"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="228"/>
+      <c r="G52" s="228"/>
+      <c r="H52" s="228"/>
+      <c r="I52" s="228"/>
+      <c r="J52" s="228"/>
+      <c r="K52" s="228"/>
+      <c r="L52" s="228"/>
+      <c r="M52" s="229"/>
+      <c r="N52" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="O52" s="238"/>
-      <c r="P52" s="238"/>
-      <c r="Q52" s="238"/>
-      <c r="R52" s="238"/>
-      <c r="S52" s="238"/>
-      <c r="T52" s="238"/>
-      <c r="U52" s="238"/>
-      <c r="V52" s="238"/>
-      <c r="W52" s="238"/>
-      <c r="X52" s="238"/>
-      <c r="Y52" s="238"/>
-      <c r="Z52" s="239" t="s">
+      <c r="O52" s="239"/>
+      <c r="P52" s="239"/>
+      <c r="Q52" s="239"/>
+      <c r="R52" s="239"/>
+      <c r="S52" s="239"/>
+      <c r="T52" s="239"/>
+      <c r="U52" s="239"/>
+      <c r="V52" s="239"/>
+      <c r="W52" s="239"/>
+      <c r="X52" s="239"/>
+      <c r="Y52" s="239"/>
+      <c r="Z52" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AA52" s="239"/>
-      <c r="AB52" s="240"/>
+      <c r="AA52" s="240"/>
+      <c r="AB52" s="241"/>
     </row>
     <row r="53" spans="1:28" s="22" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A53" s="225" t="s">
+      <c r="A53" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="225"/>
-      <c r="C53" s="225"/>
-      <c r="D53" s="225"/>
-      <c r="E53" s="225"/>
+      <c r="B53" s="226"/>
+      <c r="C53" s="226"/>
+      <c r="D53" s="226"/>
+      <c r="E53" s="226"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="225" t="s">
+      <c r="G53" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="H53" s="225"/>
-      <c r="I53" s="225"/>
-      <c r="J53" s="225"/>
-      <c r="K53" s="225"/>
-      <c r="L53" s="241" t="s">
+      <c r="H53" s="226"/>
+      <c r="I53" s="226"/>
+      <c r="J53" s="226"/>
+      <c r="K53" s="226"/>
+      <c r="L53" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="M53" s="241"/>
-      <c r="N53" s="241"/>
+      <c r="M53" s="242"/>
+      <c r="N53" s="242"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="23" t="s">
         <v>120</v>
@@ -5357,11 +5366,11 @@
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
-      <c r="Z53" s="242" t="s">
+      <c r="Z53" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="AA53" s="242"/>
-      <c r="AB53" s="242"/>
+      <c r="AA53" s="243"/>
+      <c r="AB53" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="433">
@@ -5824,10 +5833,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="258"/>
+      <c r="B1" s="259"/>
     </row>
     <row r="2" spans="1:2" ht="50.1" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -5861,10 +5870,10 @@
     </row>
     <row r="6" spans="1:2" ht="20.25" customHeight="1"/>
     <row r="7" spans="1:2" ht="16.5">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="258"/>
+      <c r="B7" s="259"/>
     </row>
     <row r="8" spans="1:2" ht="50.1" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -5900,10 +5909,10 @@
     </row>
     <row r="12" spans="1:2" ht="20.25" customHeight="1"/>
     <row r="13" spans="1:2" ht="16.5">
-      <c r="A13" s="258" t="s">
+      <c r="A13" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="258"/>
+      <c r="B13" s="259"/>
     </row>
     <row r="14" spans="1:2" ht="50.1" customHeight="1">
       <c r="A14" s="10" t="s">
@@ -5969,10 +5978,10 @@
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="259" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="258"/>
+      <c r="C1" s="259"/>
       <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
@@ -6466,7 +6475,7 @@
       <c r="C30" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="258" t="s">
+      <c r="D30" s="259" t="s">
         <v>167</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -6483,7 +6492,7 @@
       <c r="C31" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="258"/>
+      <c r="D31" s="259"/>
       <c r="E31" s="1" t="s">
         <v>138</v>
       </c>
@@ -6498,7 +6507,7 @@
       <c r="C32" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="258"/>
+      <c r="D32" s="259"/>
       <c r="E32" s="1" t="s">
         <v>138</v>
       </c>
@@ -6513,7 +6522,7 @@
       <c r="C33" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="258" t="s">
+      <c r="D33" s="259" t="s">
         <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -6530,7 +6539,7 @@
       <c r="C34" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="258"/>
+      <c r="D34" s="259"/>
       <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
@@ -6545,7 +6554,7 @@
       <c r="C35" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="258" t="s">
+      <c r="D35" s="259" t="s">
         <v>171</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -6562,7 +6571,7 @@
       <c r="C36" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="258"/>
+      <c r="D36" s="259"/>
       <c r="E36" s="1" t="s">
         <v>138</v>
       </c>
@@ -6577,7 +6586,7 @@
       <c r="C37" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="258"/>
+      <c r="D37" s="259"/>
       <c r="E37" s="1" t="s">
         <v>138</v>
       </c>

--- a/src/app/data/example.xlsx
+++ b/src/app/data/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexwang\Desktop\alexwang_work\angular-csv\src\app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexwang\Desktop\angular-ExcelSyncingService\src\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC58F5CB-00FC-4BFD-A90F-D32265A1A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F937830A-3EE4-4100-BEEF-F6BAF245B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30765" yWindow="1980" windowWidth="17535" windowHeight="12300" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="17535" windowHeight="12300" tabRatio="910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108.06" sheetId="213" state="hidden" r:id="rId1"/>
@@ -3039,7 +3039,7 @@
   </sheetPr>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U16" sqref="U16:W16"/>
     </sheetView>
   </sheetViews>
